--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>link</t>
   </si>
@@ -22,6 +22,9 @@
     <t>keywords</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>http://www.fda.gov/drugs/resources-information-approved-drugs/fda-disco-burst-edition-fda-approvals-augtyro-repotrectinib-ntrk-gene-fusion-positive-solid-tumors</t>
   </si>
   <si>
@@ -65,6 +68,33 @@
   </si>
   <si>
     <t>ctDNA</t>
+  </si>
+  <si>
+    <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
+  </si>
+  <si>
+    <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Tecentriq (atezolizumab) for unresectable or metastatic alveolar soft part sarcoma, and Krazati (adagrasib) for KRAS G12C-mutated locally advanced or metastatic non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>FDA D.I.S.C.O. Burst Edition: FDA approval of Vijoice (alpelisib) for adult and pediatric patients two years of age and older with severe manifestations of PIK3CA-related overgrowth spectrum who require systemic therapy</t>
+  </si>
+  <si>
+    <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Verzenio (abemaciclib) for adjuvant treatment of adult patients with hormone receptor-positive, human epidermal growth factor receptor 2-negative, node-positive, early breast cancer, &amp; Keytruda (pembrolizumab) for persistent, recurrent or metastatic cervical cancer whose tumors express PD-L1 (CPS ≥1)</t>
+  </si>
+  <si>
+    <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Lumakras (sotorasib) for patients with KRAS G12C  mutated locally advanced or metastatic non-small cell lung cancer, and Truseltiq (infigratinib) for unresectable locally advanced or metastatic cholangiocarcinoma with a fibroblast growth factor receptor 2 fusion or other rearrangement</t>
+  </si>
+  <si>
+    <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Trodelvy (sacituzumab govitecan) for locally advanced/metastatic urothelial cancer who received platinum-containing chemotherapy &amp; either PD-1/PD-L1 inhibitor and Opdivo (nivolumab) in combination with chemotherapy for metastatic gastric cancer and esophageal adenocarcinoma</t>
+  </si>
+  <si>
+    <t>FDA D.I.S.C.O. Burst Edition: Libtayo (cemiplimab-rwlc) for first-line treatment of patients with advanced NSCLC (locally advanced who are not candidates for surgical resection or definitive chemoradiation or metastatic) whose tumors have high PD-L1 expression with no eGFR, anaplastic lymphoma kinase or receptor tyrosine kinase aberrations</t>
+  </si>
+  <si>
+    <t>Lumea to Incorporate Myriad Genetics Cancer Tests Into Digital Pathology Platform</t>
+  </si>
+  <si>
+    <t>Natera MRD Study Results Demonstrate Potential to Ressurect Failed Adjuvant Drugs</t>
   </si>
 </sst>
 </file>
@@ -435,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,110 +473,150 @@
   <cols>
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>link</t>
   </si>
@@ -55,6 +55,9 @@
     <t>https://www.360dx.com/cancer/natera-mrd-study-results-demonstrate-potential-ressurect-failed-adjuvant-drugs</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/angle-looks-dual-ctc-ctdna-analysis-illumina-tie-expand-cancer-dx-cdx-business</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>ctDNA</t>
   </si>
   <si>
+    <t>CDx, ctDNA</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>Natera MRD Study Results Demonstrate Potential to Ressurect Failed Adjuvant Drugs</t>
+  </si>
+  <si>
+    <t>Angle Looks to Dual CTC, ctDNA Analysis, Illumina Tie-up to Expand Cancer Dx, CDx Business</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -503,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -514,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -525,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -547,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -558,10 +567,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -569,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -580,10 +589,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,10 +600,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,10 +611,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -613,10 +622,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -633,6 +653,7 @@
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
     <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>link</t>
   </si>
@@ -58,6 +58,9 @@
     <t>https://www.genomeweb.com/cancer/angle-looks-dual-ctc-ctdna-analysis-illumina-tie-expand-cancer-dx-cdx-business</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/aiosyn-growing-team-ramping-sales-breast-cancer-mitosis-detection-tool</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>Angle Looks to Dual CTC, ctDNA Analysis, Illumina Tie-up to Expand Cancer Dx, CDx Business</t>
+  </si>
+  <si>
+    <t>Aiosyn Growing Team, Ramping up Sales of Breast Cancer Mitosis Detection Tool</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -523,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -545,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -589,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -600,10 +606,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -611,10 +617,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -622,10 +628,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -633,10 +639,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -654,6 +671,7 @@
     <hyperlink ref="A12" r:id="rId11"/>
     <hyperlink ref="A13" r:id="rId12"/>
     <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>link</t>
   </si>
@@ -61,6 +61,9 @@
     <t>https://www.360dx.com/cancer/aiosyn-growing-team-ramping-sales-breast-cancer-mitosis-detection-tool</t>
   </si>
   <si>
+    <t>https://www.360dx.com/regulatory-news-fda-approvals/roche-abbott-inflammatix-paige-others-gain-510k-clearances-january</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t>Aiosyn Growing Team, Ramping up Sales of Breast Cancer Mitosis Detection Tool</t>
+  </si>
+  <si>
+    <t>Roche, Abbott, Inflammatix, Paige, Others Gain 510(k) Clearances in January</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -573,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,10 +601,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,10 +623,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +634,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +656,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -672,6 +689,7 @@
     <hyperlink ref="A13" r:id="rId12"/>
     <hyperlink ref="A14" r:id="rId13"/>
     <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>link</t>
   </si>
@@ -64,6 +64,9 @@
     <t>https://www.360dx.com/regulatory-news-fda-approvals/roche-abbott-inflammatix-paige-others-gain-510k-clearances-january</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/neurological-psychological-disorders/perspective-neurofilament-light-biomarker-mouse-models-advance</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>CDx, ctDNA</t>
   </si>
   <si>
+    <t>NFL</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t>Roche, Abbott, Inflammatix, Paige, Others Gain 510(k) Clearances in January</t>
+  </si>
+  <si>
+    <t>Perspective: Neurofilament Light as a Biomarker in Mouse Models to Advance Research in Neurological Disorders</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +610,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +621,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +643,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +654,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +665,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +676,21 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -690,6 +710,7 @@
     <hyperlink ref="A14" r:id="rId13"/>
     <hyperlink ref="A15" r:id="rId14"/>
     <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>link</t>
   </si>
@@ -67,6 +67,12 @@
     <t>https://www.genomeweb.com/neurological-psychological-disorders/perspective-neurofilament-light-biomarker-mouse-models-advance</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/foundation-medicine-sumitomo-pharma-develop-cdx-acute-leukemia-treatment</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/foundation-medicine-sumitomo-pharma-develop-cdx-acute-leukemia-treatment</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>NFL</t>
   </si>
   <si>
+    <t>CDx</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -125,6 +134,9 @@
   </si>
   <si>
     <t>Perspective: Neurofilament Light as a Biomarker in Mouse Models to Advance Research in Neurological Disorders</t>
+  </si>
+  <si>
+    <t>Foundation Medicine, Sumitomo Pharma to Develop CDx for Acute Leukemia Treatment</t>
   </si>
 </sst>
 </file>
@@ -495,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -533,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -544,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +622,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +644,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +666,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +688,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +699,32 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -711,6 +745,8 @@
     <hyperlink ref="A15" r:id="rId14"/>
     <hyperlink ref="A16" r:id="rId15"/>
     <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>link</t>
   </si>
@@ -73,6 +73,12 @@
     <t>https://www.360dx.com/cancer/foundation-medicine-sumitomo-pharma-develop-cdx-acute-leukemia-treatment</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/veracyte-eyes-dropping-ivdpharma-subsidiary-europe-growth-concentrates-among-clinical-ldts</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/veracyte-eyes-dropping-ivdpharma-subsidiary-europe-growth-concentrates-among-clinical-ldts</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>CDx</t>
   </si>
   <si>
+    <t>Veracyte</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -137,6 +146,9 @@
   </si>
   <si>
     <t>Foundation Medicine, Sumitomo Pharma to Develop CDx for Acute Leukemia Treatment</t>
+  </si>
+  <si>
+    <t>Veracyte Eyes Dropping IVD/Pharma Subsidiary in Europe As Growth Concentrates Among Clinical LDTs</t>
   </si>
 </sst>
 </file>
@@ -507,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -545,10 +557,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -556,10 +568,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -567,10 +579,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -578,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -589,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -600,10 +612,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -611,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -622,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -633,10 +645,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -644,10 +656,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -655,10 +667,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -666,10 +678,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -677,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -688,10 +700,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -699,10 +711,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -710,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -721,10 +733,32 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -747,6 +781,8 @@
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
     <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>link</t>
   </si>
@@ -79,6 +79,9 @@
     <t>https://www.360dx.com/cancer/veracyte-eyes-dropping-ivdpharma-subsidiary-europe-growth-concentrates-among-clinical-ldts</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/biotech/bridgebios-kras-focused-cancer-spinout-backs-spac-path-nasdaq</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>Veracyte Eyes Dropping IVD/Pharma Subsidiary in Europe As Growth Concentrates Among Clinical LDTs</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/biotech/bridgebios-kras-focused-cancer-spinout-backs-spac-path-nasdaq" hreflang="en"&gt;BridgeBio's KRAS-focused cancer spinout backs SPAC as path to Nasdaq&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -557,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -568,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -579,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -590,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -601,10 +607,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -612,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -623,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -634,10 +640,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -645,10 +651,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -656,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -667,10 +673,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -678,10 +684,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -689,10 +695,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -700,10 +706,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -711,10 +717,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -722,10 +728,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -733,10 +739,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -744,10 +750,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -755,10 +761,21 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -783,6 +800,7 @@
     <hyperlink ref="A19" r:id="rId18"/>
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>link</t>
   </si>
@@ -82,6 +82,9 @@
     <t>https://www.fiercebiotech.com/biotech/bridgebios-kras-focused-cancer-spinout-backs-spac-path-nasdaq</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/epredia-gains-fda-510k-digital-pathology-imaging-system</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/biotech/bridgebios-kras-focused-cancer-spinout-backs-spac-path-nasdaq" hreflang="en"&gt;BridgeBio's KRAS-focused cancer spinout backs SPAC as path to Nasdaq&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Epredia Gains FDA 510(k) for Digital Pathology Imaging System</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -563,10 +569,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -574,10 +580,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -585,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -596,10 +602,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -607,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -618,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -629,10 +635,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -640,10 +646,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -651,10 +657,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -662,10 +668,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -673,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -684,10 +690,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -695,10 +701,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -706,10 +712,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -717,10 +723,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -728,10 +734,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -739,10 +745,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -750,10 +756,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -761,10 +767,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -772,10 +778,21 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>46</v>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -801,6 +818,7 @@
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
     <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>link</t>
   </si>
@@ -85,6 +85,9 @@
     <t>https://www.360dx.com/cancer/epredia-gains-fda-510k-digital-pathology-imaging-system</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/foresight-diagnostics-launches-trial-mrd-guided-treatment-hodgkin-lymphoma</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>Epredia Gains FDA 510(k) for Digital Pathology Imaging System</t>
+  </si>
+  <si>
+    <t>Foresight Diagnostics Launches Trial of MRD-Guided Treatment in Hodgkin Lymphoma</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -569,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -580,10 +586,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -591,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -602,10 +608,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -613,10 +619,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -624,10 +630,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -635,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -646,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -657,10 +663,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -668,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -679,10 +685,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -690,10 +696,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -701,10 +707,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -712,10 +718,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -723,10 +729,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -734,10 +740,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -745,10 +751,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -756,10 +762,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -767,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -778,10 +784,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -789,10 +795,21 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -819,6 +836,7 @@
     <hyperlink ref="A21" r:id="rId20"/>
     <hyperlink ref="A22" r:id="rId21"/>
     <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>link</t>
   </si>
@@ -88,6 +88,12 @@
     <t>https://www.genomeweb.com/cancer/foresight-diagnostics-launches-trial-mrd-guided-treatment-hodgkin-lymphoma</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/tethis-sheba-medical-center-trying-predict-rectal-cancer-relapse-earlier-ctcs-ctdna</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/agilent-technologies-gains-expanded-ivdr-certification-pd-l1-cdx</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>Veracyte</t>
   </si>
   <si>
+    <t>CDx, PD-L1</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -167,6 +176,12 @@
   </si>
   <si>
     <t>Foresight Diagnostics Launches Trial of MRD-Guided Treatment in Hodgkin Lymphoma</t>
+  </si>
+  <si>
+    <t>Tethis, Sheba Medical Center Trying to Predict Rectal Cancer Relapse Earlier With CTCs, ctDNA</t>
+  </si>
+  <si>
+    <t>Agilent Technologies Gains Expanded IVDR Certification for PD-L1 CDx</t>
   </si>
 </sst>
 </file>
@@ -537,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -575,10 +590,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -586,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -597,10 +612,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -608,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -619,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -630,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -641,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -652,10 +667,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -663,10 +678,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -674,10 +689,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -685,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -696,10 +711,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -707,10 +722,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -718,10 +733,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -729,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -740,10 +755,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -751,10 +766,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -762,10 +777,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -773,10 +788,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -784,10 +799,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -795,10 +810,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -806,10 +821,32 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -837,6 +874,8 @@
     <hyperlink ref="A22" r:id="rId21"/>
     <hyperlink ref="A23" r:id="rId22"/>
     <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>link</t>
   </si>
@@ -94,6 +94,9 @@
     <t>https://www.360dx.com/cancer/agilent-technologies-gains-expanded-ivdr-certification-pd-l1-cdx</t>
   </si>
   <si>
+    <t>https://www.360dx.com/regulatory-news-fda-approvals/roche-abbott-hologic-cepheid-others-gain-510k-clearances-february</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t>Agilent Technologies Gains Expanded IVDR Certification for PD-L1 CDx</t>
+  </si>
+  <si>
+    <t>Roche, Abbott, Hologic, Cepheid, Others Gain 510(k) Clearances in February</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,10 +585,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -590,10 +596,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,10 +607,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -612,10 +618,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -623,10 +629,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -634,10 +640,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -645,10 +651,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -656,10 +662,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -667,10 +673,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -678,10 +684,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -689,10 +695,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -700,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -711,10 +717,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -722,10 +728,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -733,10 +739,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -744,10 +750,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -755,10 +761,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -766,10 +772,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -777,10 +783,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -788,10 +794,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -799,10 +805,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -810,10 +816,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -821,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -832,10 +838,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -843,10 +849,21 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -876,6 +893,7 @@
     <hyperlink ref="A24" r:id="rId23"/>
     <hyperlink ref="A25" r:id="rId24"/>
     <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>link</t>
   </si>
@@ -97,6 +97,12 @@
     <t>https://www.360dx.com/regulatory-news-fda-approvals/roche-abbott-hologic-cepheid-others-gain-510k-clearances-february</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/pharma-dx-leaders-urge-mrd-community-focus-clinical-utility-use-trials-grows</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/pharma-dx-leaders-urge-mrd-community-focus-clinical-utility-use-trials-grows</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
     <t>CDx, PD-L1</t>
   </si>
   <si>
+    <t>MRD</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>Roche, Abbott, Hologic, Cepheid, Others Gain 510(k) Clearances in February</t>
+  </si>
+  <si>
+    <t>Pharma, Dx Leaders Urge MRD Community to Focus on Clinical Utility as Use in Trials Grows</t>
   </si>
 </sst>
 </file>
@@ -558,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -596,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -607,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -618,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -629,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -640,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -651,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -662,10 +674,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -673,10 +685,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -684,10 +696,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -695,10 +707,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -706,10 +718,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -717,10 +729,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -728,10 +740,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -739,10 +751,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -750,10 +762,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -761,10 +773,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -772,10 +784,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -783,10 +795,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -794,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -805,10 +817,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -816,10 +828,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -827,10 +839,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -838,10 +850,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,10 +861,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -860,10 +872,32 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -894,6 +928,8 @@
     <hyperlink ref="A25" r:id="rId24"/>
     <hyperlink ref="A26" r:id="rId25"/>
     <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>link</t>
   </si>
@@ -103,6 +103,12 @@
     <t>https://www.360dx.com/cancer/pharma-dx-leaders-urge-mrd-community-focus-clinical-utility-use-trials-grows</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/prosica-nabs-50m-funding-support-commercialization-digital-pathology-software</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/epredia-bolsters-cancer-testing-menu-high-throughput-digital-pathology-system</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -200,6 +206,12 @@
   </si>
   <si>
     <t>Pharma, Dx Leaders Urge MRD Community to Focus on Clinical Utility as Use in Trials Grows</t>
+  </si>
+  <si>
+    <t>Prosica Nabs $50M in Funding to Support Commercialization of Digital Pathology Software</t>
+  </si>
+  <si>
+    <t>Epredia Bolsters Cancer Testing Menu With High-Throughput Digital Pathology System</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,10 +609,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -608,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -619,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -630,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -641,10 +653,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -652,10 +664,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -663,10 +675,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -674,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -685,10 +697,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -696,10 +708,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -707,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -718,10 +730,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -729,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -740,10 +752,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -751,10 +763,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -762,10 +774,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -773,10 +785,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -784,10 +796,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -795,10 +807,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -806,10 +818,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -817,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -828,10 +840,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -839,10 +851,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -850,10 +862,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -861,10 +873,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -872,10 +884,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -883,10 +895,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -894,10 +906,32 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -930,6 +964,8 @@
     <hyperlink ref="A27" r:id="rId26"/>
     <hyperlink ref="A28" r:id="rId27"/>
     <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>link</t>
   </si>
@@ -109,6 +109,9 @@
     <t>https://www.360dx.com/cancer/epredia-bolsters-cancer-testing-menu-high-throughput-digital-pathology-system</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/gestalt-primaa-partner-ai-based-testing-skin-cancer</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>Epredia Bolsters Cancer Testing Menu With High-Throughput Digital Pathology System</t>
+  </si>
+  <si>
+    <t>Gestalt, Primaa Partner on AI-Based Testing for Skin Cancer</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,10 +615,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -620,10 +626,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -631,10 +637,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -642,10 +648,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -653,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -664,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -675,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -686,10 +692,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -697,10 +703,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -708,10 +714,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -719,10 +725,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -730,10 +736,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -741,10 +747,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -752,10 +758,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -763,10 +769,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -774,10 +780,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -785,10 +791,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -796,10 +802,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -807,10 +813,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -818,10 +824,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -829,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -840,10 +846,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -851,10 +857,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -862,10 +868,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -873,10 +879,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -884,10 +890,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -895,10 +901,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -906,10 +912,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -917,10 +923,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -928,10 +934,21 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +983,7 @@
     <hyperlink ref="A29" r:id="rId28"/>
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>link</t>
   </si>
@@ -112,6 +112,18 @@
     <t>https://www.360dx.com/cancer/gestalt-primaa-partner-ai-based-testing-skin-cancer</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/business-news/craig-hallum-initiates-coverage-veracyte-buy-rating-45-price-target</t>
+  </si>
+  <si>
+    <t>https://www.genomeweb.com/liquid-biopsy/executive-qa-nccn-recommends-ctdna-mrd-testing-diffuse-large-b-cell-lymphoma</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/business-news/craig-hallum-initiates-coverage-veracyte-buy-rating-45-price-target</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/proscia-nabs-50m-funding-support-commercialization-digital-pathology-software</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>MRD</t>
   </si>
   <si>
+    <t>ctDNA, MRD</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -218,6 +233,15 @@
   </si>
   <si>
     <t>Gestalt, Primaa Partner on AI-Based Testing for Skin Cancer</t>
+  </si>
+  <si>
+    <t>Craig-Hallum Initiates Coverage of Veracyte With Buy Rating, $45 Price Target</t>
+  </si>
+  <si>
+    <t>Executive Q&amp;A: NCCN Recommends ctDNA MRD Testing for Diffuse Large B-Cell Lymphoma</t>
+  </si>
+  <si>
+    <t>Proscia Nabs $50M in Funding to Support Commercialization of Digital Pathology Software</t>
   </si>
 </sst>
 </file>
@@ -588,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -626,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -637,10 +661,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -648,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -659,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -670,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -681,10 +705,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -692,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -703,10 +727,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -714,10 +738,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -725,10 +749,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -736,10 +760,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -747,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -758,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -769,10 +793,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -780,10 +804,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -791,10 +815,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -802,10 +826,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -813,10 +837,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -824,10 +848,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -835,10 +859,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -846,10 +870,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -857,10 +881,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -868,10 +892,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -879,10 +903,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -890,10 +914,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -901,10 +925,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -912,10 +936,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -923,10 +947,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -934,10 +958,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -945,10 +969,54 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
-        <v>67</v>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -984,6 +1052,10 @@
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="A31" r:id="rId30"/>
     <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>link</t>
   </si>
@@ -124,6 +124,9 @@
     <t>https://www.360dx.com/cancer/proscia-nabs-50m-funding-support-commercialization-digital-pathology-software</t>
   </si>
   <si>
+    <t>https://www.360dx.com/hematologycoagulation/siemens-healthineers-gains-fda-510k-clearance-blood-clot-drug-cdx</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -242,6 +245,9 @@
   </si>
   <si>
     <t>Proscia Nabs $50M in Funding to Support Commercialization of Digital Pathology Software</t>
+  </si>
+  <si>
+    <t>Siemens Healthineers Gains FDA 510(k) Clearance for Blood Clot Drug CDx</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -650,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -661,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -672,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -683,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -694,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -705,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -716,10 +722,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -727,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -738,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -749,10 +755,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -760,10 +766,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -771,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -782,10 +788,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -793,10 +799,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -804,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -815,10 +821,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -826,10 +832,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -837,10 +843,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -848,10 +854,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -859,10 +865,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -870,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -881,10 +887,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -892,10 +898,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -903,10 +909,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -914,10 +920,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -925,10 +931,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -936,10 +942,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -947,10 +953,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -958,10 +964,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -969,10 +975,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -980,10 +986,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -991,10 +997,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1002,10 +1008,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1013,10 +1019,21 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1056,6 +1073,7 @@
     <hyperlink ref="A34" r:id="rId33"/>
     <hyperlink ref="A35" r:id="rId34"/>
     <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>link</t>
   </si>
@@ -127,6 +127,12 @@
     <t>https://www.360dx.com/hematologycoagulation/siemens-healthineers-gains-fda-510k-clearance-blood-clot-drug-cdx</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/new-data-promising-veracyte-path-launch-whole-genome-sequencing-mrd-test</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/new-data-promising-veracyte-path-launch-whole-genome-sequencing-mrd-test</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>ctDNA, MRD</t>
   </si>
   <si>
+    <t>Veracyte, MRD</t>
+  </si>
+  <si>
     <t>FDA D.I.S.C.O. Burst Edition: FDA approvals of Augtyro (repotrectinib) for NTRK gene fusion-positive solid tumors and Krazati (adagrasib) for KRAS G12C-mutated colorectal cancer</t>
   </si>
   <si>
@@ -248,6 +257,9 @@
   </si>
   <si>
     <t>Siemens Healthineers Gains FDA 510(k) Clearance for Blood Clot Drug CDx</t>
+  </si>
+  <si>
+    <t>New Data Promising for Veracyte on Path to Launch Whole-Genome Sequencing MRD Test</t>
   </si>
 </sst>
 </file>
@@ -618,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -656,10 +668,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -667,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -678,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -689,10 +701,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -700,10 +712,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -711,10 +723,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -722,10 +734,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -733,10 +745,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -744,10 +756,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -755,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -766,10 +778,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -777,10 +789,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -788,10 +800,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -799,10 +811,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -810,10 +822,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -821,10 +833,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -832,10 +844,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -843,10 +855,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -854,10 +866,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -865,10 +877,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -876,10 +888,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -887,10 +899,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -898,10 +910,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -909,10 +921,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -920,10 +932,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -931,10 +943,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -942,10 +954,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -953,10 +965,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -964,10 +976,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -975,10 +987,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -986,10 +998,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -997,10 +1009,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1008,10 +1020,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1019,10 +1031,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1030,10 +1042,32 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1074,6 +1108,8 @@
     <hyperlink ref="A35" r:id="rId34"/>
     <hyperlink ref="A36" r:id="rId35"/>
     <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>link</t>
   </si>
@@ -133,6 +133,12 @@
     <t>https://www.360dx.com/cancer/new-data-promising-veracyte-path-launch-whole-genome-sequencing-mrd-test</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/pillar-biosciences-receives-cms-coverage-pan-cancer-cdx-assay</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/pillar-biosciences-receives-cms-coverage-pan-cancer-cdx-assay</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
   </si>
   <si>
     <t>New Data Promising for Veracyte on Path to Launch Whole-Genome Sequencing MRD Test</t>
+  </si>
+  <si>
+    <t>Pillar Biosciences Receives CMS Coverage for Pan-Cancer CDx Assay</t>
   </si>
 </sst>
 </file>
@@ -630,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,10 +666,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -668,10 +677,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -679,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -690,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -701,10 +710,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -712,10 +721,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -723,10 +732,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -734,10 +743,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -745,10 +754,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -756,10 +765,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -767,10 +776,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -778,10 +787,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -789,10 +798,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -800,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -811,10 +820,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -822,10 +831,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -833,10 +842,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -844,10 +853,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -855,10 +864,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -866,10 +875,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -877,10 +886,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -888,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -899,10 +908,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -910,10 +919,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -921,10 +930,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -932,10 +941,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -943,10 +952,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -954,10 +963,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -965,10 +974,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -976,10 +985,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -987,10 +996,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -998,10 +1007,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1009,10 +1018,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1020,10 +1029,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1031,10 +1040,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1042,10 +1051,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1053,10 +1062,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1064,10 +1073,32 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1110,6 +1141,8 @@
     <hyperlink ref="A37" r:id="rId36"/>
     <hyperlink ref="A38" r:id="rId37"/>
     <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>link</t>
   </si>
@@ -139,6 +139,9 @@
     <t>https://www.360dx.com/cancer/pillar-biosciences-receives-cms-coverage-pan-cancer-cdx-assay</t>
   </si>
   <si>
+    <t>https://www.360dx.com/diagnostics/proscia-using-50m-fundraise-expand-staff-bolster-ai-tools-menu</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -269,6 +272,9 @@
   </si>
   <si>
     <t>Pillar Biosciences Receives CMS Coverage for Pan-Cancer CDx Assay</t>
+  </si>
+  <si>
+    <t>Proscia Using $50M Fundraise to Expand Staff, Bolster AI Tools Menu</t>
   </si>
 </sst>
 </file>
@@ -639,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -677,10 +683,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -688,10 +694,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -699,10 +705,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -710,10 +716,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -721,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -732,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -743,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -754,10 +760,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -765,10 +771,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -776,10 +782,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -787,10 +793,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -798,10 +804,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -809,10 +815,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -820,10 +826,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -831,10 +837,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -842,10 +848,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -853,10 +859,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -864,10 +870,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -875,10 +881,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -886,10 +892,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -897,10 +903,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -908,10 +914,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -919,10 +925,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -930,10 +936,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -941,10 +947,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -952,10 +958,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -963,10 +969,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -974,10 +980,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -985,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -996,10 +1002,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1007,10 +1013,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1018,10 +1024,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1029,10 +1035,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1040,10 +1046,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1051,10 +1057,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1062,10 +1068,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1073,10 +1079,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1084,10 +1090,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1095,10 +1101,21 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1160,7 @@
     <hyperlink ref="A39" r:id="rId38"/>
     <hyperlink ref="A40" r:id="rId39"/>
     <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>link</t>
   </si>
@@ -142,6 +142,12 @@
     <t>https://www.360dx.com/diagnostics/proscia-using-50m-fundraise-expand-staff-bolster-ai-tools-menu</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/molecular-diagnostics/source-bioscience-acquires-cambridge-clinical-laboratories</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/molecular-diagnostics/source-bioscience-acquires-cambridge-clinical-laboratories</t>
+  </si>
+  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
   </si>
   <si>
     <t>Proscia Using $50M Fundraise to Expand Staff, Bolster AI Tools Menu</t>
+  </si>
+  <si>
+    <t>Source BioScience Acquires Cambridge Clinical Laboratories</t>
   </si>
 </sst>
 </file>
@@ -645,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,10 +681,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -683,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -694,10 +703,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -705,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -716,10 +725,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -727,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -738,10 +747,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -749,10 +758,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -760,10 +769,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -771,10 +780,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -782,10 +791,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -793,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -804,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -815,10 +824,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -826,10 +835,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -837,10 +846,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -848,10 +857,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -859,10 +868,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -870,10 +879,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -881,10 +890,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -892,10 +901,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -903,10 +912,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -914,10 +923,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -925,10 +934,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -936,10 +945,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -947,10 +956,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -958,10 +967,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -969,10 +978,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -980,10 +989,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -991,10 +1000,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1002,10 +1011,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1013,10 +1022,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1024,10 +1033,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1035,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1046,10 +1055,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1057,10 +1066,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1068,10 +1077,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1079,10 +1088,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1090,10 +1099,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1101,10 +1110,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1112,10 +1121,32 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1161,6 +1192,8 @@
     <hyperlink ref="A40" r:id="rId39"/>
     <hyperlink ref="A41" r:id="rId40"/>
     <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>link</t>
   </si>
@@ -28,10 +28,19 @@
     <t>https://www.360dx.com/regulatory-news-fda-approvals/beckman-coulter-siemens-healthineers-abbott-others-gain-510k</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/agilent-gains-ivdr-certification-expanded-use-cdx-assay-keytruda</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
+    <t>CDx</t>
+  </si>
+  <si>
     <t>Beckman Coulter, Siemens Healthineers, Abbott, Others Gain 510(k) Clearances in March</t>
+  </si>
+  <si>
+    <t>Agilent Gains IVDR Certification for Expanded Use of CDx Assay for Keytruda</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,15 +438,27 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>link</t>
   </si>
@@ -31,6 +31,12 @@
     <t>https://www.360dx.com/cancer/agilent-gains-ivdr-certification-expanded-use-cdx-assay-keytruda</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/entrogen-colorectal-cancer-ras-mutation-detection-test-nabs-cms-coverage</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/entrogen-colorectal-cancer-ras-mutation-detection-test-nabs-cms-coverage</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -41,6 +47,9 @@
   </si>
   <si>
     <t>Agilent Gains IVDR Certification for Expanded Use of CDx Assay for Keytruda</t>
+  </si>
+  <si>
+    <t>EntroGen Colorectal Cancer RAS Mutation Detection Test Nabs CMS Coverage</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -449,16 +458,40 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>link</t>
   </si>
@@ -37,6 +37,9 @@
     <t>https://www.360dx.com/cancer/entrogen-colorectal-cancer-ras-mutation-detection-test-nabs-cms-coverage</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/medtech/roche-receives-fda-breakthrough-label-ai-powered-lung-cancer-companion-diagnostic-test</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>EntroGen Colorectal Cancer RAS Mutation Detection Test Nabs CMS Coverage</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/medtech/roche-receives-fda-breakthrough-label-ai-powered-lung-cancer-companion-diagnostic-test" hreflang="en"&gt;Roche receives FDA breakthrough label for AI-powered lung cancer companion diagnostic test&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,10 +486,21 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -492,6 +509,7 @@
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>link</t>
   </si>
@@ -40,6 +40,9 @@
     <t>https://www.fiercebiotech.com/medtech/roche-receives-fda-breakthrough-label-ai-powered-lung-cancer-companion-diagnostic-test</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/fda-approves-roche-lung-cancer-cdx-assay-use-abbvies-emrelis</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/medtech/roche-receives-fda-breakthrough-label-ai-powered-lung-cancer-companion-diagnostic-test" hreflang="en"&gt;Roche receives FDA breakthrough label for AI-powered lung cancer companion diagnostic test&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>FDA Approves Roche Lung Cancer CDx Assay for Use with AbbVie's Emrelis</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,10 +503,21 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -510,6 +527,7 @@
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>link</t>
   </si>
@@ -43,6 +43,12 @@
     <t>https://www.360dx.com/cancer/fda-approves-roche-lung-cancer-cdx-assay-use-abbvies-emrelis</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/tempus-ai-verastem-partner-develop-cdx-assay-ovarian-cancer-combination-treatment</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/tempus-ai-verastem-partner-develop-cdx-assay-ovarian-cancer-combination-treatment</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t>FDA Approves Roche Lung Cancer CDx Assay for Use with AbbVie's Emrelis</t>
+  </si>
+  <si>
+    <t>Tempus AI, Verastem Partner to Develop CDx Assay for Ovarian Cancer Combination Treatment</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,10 +490,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,10 +501,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,10 +512,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,10 +523,32 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -528,6 +559,8 @@
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
     <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>link</t>
   </si>
@@ -49,12 +49,18 @@
     <t>https://www.360dx.com/cancer/tempus-ai-verastem-partner-develop-cdx-assay-ovarian-cancer-combination-treatment</t>
   </si>
   <si>
+    <t>https://www.biocentury.com/article/656014/odac-votes-for-darzalex-in-smoldering-multiple-myeloma</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
     <t>CDx</t>
   </si>
   <si>
+    <t>smoldering multiple myeloma</t>
+  </si>
+  <si>
     <t>Beckman Coulter, Siemens Healthineers, Abbott, Others Gain 510(k) Clearances in March</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>Tempus AI, Verastem Partner to Develop CDx Assay for Ovarian Cancer Combination Treatment</t>
+  </si>
+  <si>
+    <t>ODAC votes for Darzalex in smoldering multiple myeloma</t>
   </si>
 </sst>
 </file>
@@ -441,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -479,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -490,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -501,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -512,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -523,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -534,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -545,10 +554,21 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -561,6 +581,7 @@
     <hyperlink ref="A7" r:id="rId6"/>
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>link</t>
   </si>
@@ -52,6 +52,12 @@
     <t>https://www.biocentury.com/article/656014/odac-votes-for-darzalex-in-smoldering-multiple-myeloma</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/illumina-offer-pillar-biosciences-cdx-assay-expanded-partnership</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/illumina-offer-pillar-biosciences-cdx-assay-expanded-partnership</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>ODAC votes for Darzalex in smoldering multiple myeloma</t>
+  </si>
+  <si>
+    <t>Illumina to Offer Pillar Biosciences CDx Assay In Expanded Partnership</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -488,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -499,10 +508,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -510,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -521,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -532,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -543,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -554,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -565,10 +574,32 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -582,6 +613,8 @@
     <hyperlink ref="A8" r:id="rId7"/>
     <hyperlink ref="A9" r:id="rId8"/>
     <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>link</t>
   </si>
@@ -58,6 +58,12 @@
     <t>https://www.360dx.com/cancer/illumina-offer-pillar-biosciences-cdx-assay-expanded-partnership</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/biocartis-gains-ivdr-class-c-certification-lung-cancer-cdx</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/biocartis-gains-ivdr-class-c-certification-lung-cancer-cdx</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
   </si>
   <si>
     <t>Illumina to Offer Pillar Biosciences CDx Assay In Expanded Partnership</t>
+  </si>
+  <si>
+    <t>Biocartis Gains IVDR Class C Certification for Lung Cancer CDx</t>
   </si>
 </sst>
 </file>
@@ -459,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,10 +495,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -497,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -508,10 +517,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -519,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -530,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -541,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -552,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -563,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -574,10 +583,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -585,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -596,10 +605,32 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -615,6 +646,8 @@
     <hyperlink ref="A10" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>link</t>
   </si>
@@ -64,6 +64,9 @@
     <t>https://www.360dx.com/cancer/biocartis-gains-ivdr-class-c-certification-lung-cancer-cdx</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/medtech/asco-guardant-blood-test-guides-breast-cancer-therapy-switches-extending-survival-az-backed</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>Biocartis Gains IVDR Class C Certification for Lung Cancer CDx</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/medtech/asco-guardant-blood-test-guides-breast-cancer-therapy-switches-extending-survival-az-backed" hreflang="en"&gt;ASCO: Guardant blood test guides breast cancer therapy switches, extending survival in AZ-backed study&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,10 +567,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,10 +589,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,10 +600,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,10 +611,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,10 +633,21 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -648,6 +665,7 @@
     <hyperlink ref="A12" r:id="rId11"/>
     <hyperlink ref="A13" r:id="rId12"/>
     <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>link</t>
   </si>
@@ -67,6 +67,18 @@
     <t>https://www.fiercebiotech.com/medtech/asco-guardant-blood-test-guides-breast-cancer-therapy-switches-extending-survival-az-backed</t>
   </si>
   <si>
+    <t>https://www.sciencedaily.com/releases/2024/12/241210163409.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2024/01/240114202019.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2019/10/191028104212.htm</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/releases/2018/04/180426141507.htm</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -76,6 +88,9 @@
     <t>smoldering multiple myeloma</t>
   </si>
   <si>
+    <t>MGUS</t>
+  </si>
+  <si>
     <t>Beckman Coulter, Siemens Healthineers, Abbott, Others Gain 510(k) Clearances in March</t>
   </si>
   <si>
@@ -104,6 +119,18 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/medtech/asco-guardant-blood-test-guides-breast-cancer-therapy-switches-extending-survival-az-backed" hreflang="en"&gt;ASCO: Guardant blood test guides breast cancer therapy switches, extending survival in AZ-backed study&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Research shows new treatment could delay cancer progression in patients with high-risk smoldering multiple myeloma</t>
+  </si>
+  <si>
+    <t>Obesity linked to detection of blood cancer precursor</t>
+  </si>
+  <si>
+    <t>Lenalidomide may delay onset of myeloma-related bone, organ damage</t>
+  </si>
+  <si>
+    <t>Blood cancer precursor found in 9/11 firefighters</t>
   </si>
 </sst>
 </file>
@@ -474,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,10 +539,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -523,10 +550,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -545,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,10 +594,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -589,10 +616,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -600,10 +627,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -611,10 +638,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -622,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -633,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -644,10 +671,54 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -666,6 +737,10 @@
     <hyperlink ref="A13" r:id="rId12"/>
     <hyperlink ref="A14" r:id="rId13"/>
     <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>link</t>
   </si>
@@ -79,6 +79,9 @@
     <t>https://www.sciencedaily.com/releases/2018/04/180426141507.htm</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/biotech/cullinan-pens-700m-pact-bcma-bispecific-pair-another-autoimmune-t-cell-engager</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>MGUS</t>
   </si>
   <si>
+    <t>BCMA</t>
+  </si>
+  <si>
     <t>Beckman Coulter, Siemens Healthineers, Abbott, Others Gain 510(k) Clearances in March</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
   </si>
   <si>
     <t>Blood cancer precursor found in 9/11 firefighters</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/biotech/cullinan-pens-700m-pact-bcma-bispecific-pair-another-autoimmune-t-cell-engager" hreflang="en"&gt;Cullinan pens $700M pact for BCMA bispecific to pair with another autoimmune T-cell engager&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -501,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -539,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -550,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,10 +570,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,10 +592,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,10 +614,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,10 +625,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,10 +647,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,10 +658,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,10 +669,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,10 +680,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,10 +691,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,10 +702,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,10 +713,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,10 +724,21 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -741,6 +761,7 @@
     <hyperlink ref="A17" r:id="rId16"/>
     <hyperlink ref="A18" r:id="rId17"/>
     <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>link</t>
   </si>
@@ -82,6 +82,9 @@
     <t>https://www.fiercebiotech.com/biotech/cullinan-pens-700m-pact-bcma-bispecific-pair-another-autoimmune-t-cell-engager</t>
   </si>
   <si>
+    <t>https://www.360dx.com/immunoassays/randox-laboratories-gains-fda-de-novo-clearance-hemophilia-cdx</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/biotech/cullinan-pens-700m-pact-bcma-bispecific-pair-another-autoimmune-t-cell-engager" hreflang="en"&gt;Cullinan pens $700M pact for BCMA bispecific to pair with another autoimmune T-cell engager&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Randox Laboratories Gains FDA De Novo Clearance for Hemophilia CDx</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +543,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -548,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -559,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -570,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -581,10 +587,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -592,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -603,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -614,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -625,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -636,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -647,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -658,10 +664,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -669,10 +675,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -680,10 +686,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -691,10 +697,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -702,10 +708,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -713,10 +719,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -724,10 +730,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -735,10 +741,21 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -762,6 +779,7 @@
     <hyperlink ref="A18" r:id="rId17"/>
     <hyperlink ref="A19" r:id="rId18"/>
     <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>link</t>
   </si>
@@ -85,6 +85,9 @@
     <t>https://www.360dx.com/immunoassays/randox-laboratories-gains-fda-de-novo-clearance-hemophilia-cdx</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/medtech/cancer-tester-caris-life-sciences-go-public-400m-nasdaq-ipo</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>Randox Laboratories Gains FDA De Novo Clearance for Hemophilia CDx</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/medtech/cancer-tester-caris-life-sciences-go-public-400m-nasdaq-ipo" hreflang="en"&gt;Cancer tester Caris Life Sciences to go public in $400M Nasdaq IPO&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -516,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -565,10 +571,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -576,10 +582,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -587,10 +593,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -598,10 +604,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -609,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -620,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -631,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -642,10 +648,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -653,10 +659,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -664,10 +670,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -675,10 +681,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -686,10 +692,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -697,10 +703,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -708,10 +714,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -719,10 +725,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -730,10 +736,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -741,10 +747,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -752,10 +758,21 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
+      <c r="C22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -780,6 +797,7 @@
     <hyperlink ref="A19" r:id="rId18"/>
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>link</t>
   </si>
@@ -88,6 +88,12 @@
     <t>https://www.fiercebiotech.com/medtech/cancer-tester-caris-life-sciences-go-public-400m-nasdaq-ipo</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/qiagen-incyte-partner-develop-companion-diagnostics-calr-mutant-other-blood-cancers</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/qiagen-incyte-partner-develop-companion-diagnostics-calr-mutant-other-blood-cancers</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>BCMA</t>
   </si>
   <si>
+    <t>companion diagnostics</t>
+  </si>
+  <si>
     <t>Beckman Coulter, Siemens Healthineers, Abbott, Others Gain 510(k) Clearances in March</t>
   </si>
   <si>
@@ -152,6 +161,9 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/medtech/cancer-tester-caris-life-sciences-go-public-400m-nasdaq-ipo" hreflang="en"&gt;Cancer tester Caris Life Sciences to go public in $400M Nasdaq IPO&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Qiagen, Incyte Partner to Develop Companion Diagnostics for CALR-Mutant, Other Blood Cancers</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,10 +561,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,10 +572,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,10 +583,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,10 +594,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,10 +616,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,10 +627,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,10 +638,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,10 +649,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,10 +660,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,10 +671,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,10 +682,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,10 +693,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,10 +704,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,10 +726,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,10 +737,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,10 +748,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,10 +759,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,10 +781,32 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -798,6 +832,8 @@
     <hyperlink ref="A20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20"/>
     <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>link</t>
   </si>
@@ -94,6 +94,9 @@
     <t>https://www.360dx.com/cancer/qiagen-incyte-partner-develop-companion-diagnostics-calr-mutant-other-blood-cancers</t>
   </si>
   <si>
+    <t>https://www.biocentury.com/article/656269/illumina-s-buy-of-somalogic-could-be-tipping-point-for-multiomics-deals-report</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
   </si>
   <si>
     <t>Qiagen, Incyte Partner to Develop Companion Diagnostics for CALR-Mutant, Other Blood Cancers</t>
+  </si>
+  <si>
+    <t>Illumina’s buy of Somalogic could be tipping point for multiomics: Deals Report</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -572,10 +578,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -583,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,10 +600,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,10 +611,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,10 +622,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,10 +666,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,10 +677,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,10 +688,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,10 +699,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,10 +710,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,10 +721,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,10 +732,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,10 +743,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -748,10 +754,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -759,10 +765,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -770,10 +776,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,10 +787,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,10 +798,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -803,10 +809,21 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
+      <c r="C25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -834,6 +851,7 @@
     <hyperlink ref="A22" r:id="rId21"/>
     <hyperlink ref="A23" r:id="rId22"/>
     <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>link</t>
   </si>
@@ -97,6 +97,12 @@
     <t>https://www.biocentury.com/article/656269/illumina-s-buy-of-somalogic-could-be-tipping-point-for-multiomics-deals-report</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/metastx-secures-500k-nci-grant-develop-metastatic-prostate-cancer-cdx-test</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/metastx-secures-500k-nci-grant-develop-metastatic-prostate-cancer-cdx-test</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>companion diagnostics</t>
   </si>
   <si>
+    <t>CDx, companion diagnostic</t>
+  </si>
+  <si>
     <t>Beckman Coulter, Siemens Healthineers, Abbott, Others Gain 510(k) Clearances in March</t>
   </si>
   <si>
@@ -170,6 +179,9 @@
   </si>
   <si>
     <t>Illumina’s buy of Somalogic could be tipping point for multiomics: Deals Report</t>
+  </si>
+  <si>
+    <t>MetasTx Secures $500K NCI Grant to Develop Metastatic Prostate Cancer CDx Test</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,10 +579,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -578,10 +590,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -589,10 +601,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -600,10 +612,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -611,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -622,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -633,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -644,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -655,10 +667,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -666,10 +678,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -677,10 +689,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -688,10 +700,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -699,10 +711,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -710,10 +722,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -721,10 +733,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -732,10 +744,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -743,10 +755,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -754,10 +766,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -765,10 +777,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -776,10 +788,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -787,10 +799,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -798,10 +810,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -809,10 +821,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -820,10 +832,32 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -852,6 +886,8 @@
     <hyperlink ref="A23" r:id="rId22"/>
     <hyperlink ref="A24" r:id="rId23"/>
     <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>link</t>
   </si>
@@ -103,6 +103,12 @@
     <t>https://www.360dx.com/cancer/metastx-secures-500k-nci-grant-develop-metastatic-prostate-cancer-cdx-test</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/molecular-diagnostics/qiagen-partnership-program-aims-build-out-clinical-dpcr-menu</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/molecular-diagnostics/qiagen-partnership-program-aims-build-out-clinical-dpcr-menu</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
   </si>
   <si>
     <t>MetasTx Secures $500K NCI Grant to Develop Metastatic Prostate Cancer CDx Test</t>
+  </si>
+  <si>
+    <t>Qiagen Partnership Program Aims to Build out Clinical dPCR Menu</t>
   </si>
 </sst>
 </file>
@@ -552,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -590,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,10 +610,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -612,10 +621,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -623,10 +632,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -634,10 +643,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -645,10 +654,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -656,10 +665,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -667,10 +676,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -678,10 +687,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -689,10 +698,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -700,10 +709,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -711,10 +720,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -722,10 +731,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -733,10 +742,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -744,10 +753,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -755,10 +764,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -766,10 +775,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -777,10 +786,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -788,10 +797,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -799,10 +808,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -810,10 +819,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -821,10 +830,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -832,10 +841,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -843,10 +852,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -854,10 +863,32 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -888,6 +919,8 @@
     <hyperlink ref="A25" r:id="rId24"/>
     <hyperlink ref="A26" r:id="rId25"/>
     <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>link</t>
   </si>
@@ -109,6 +109,12 @@
     <t>https://www.360dx.com/molecular-diagnostics/qiagen-partnership-program-aims-build-out-clinical-dpcr-menu</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/sequencing/thermo-fisher-ngs-assay-gets-fda-ok-cdx-dizals-zegfrovy-and-solid-tumor-profiling</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/sequencing/thermo-fisher-ngs-assay-gets-fda-ok-cdx-dizals-zegfrovy-and-solid-tumor-profiling</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -191,6 +197,9 @@
   </si>
   <si>
     <t>Qiagen Partnership Program Aims to Build out Clinical dPCR Menu</t>
+  </si>
+  <si>
+    <t>Thermo Fisher NGS Assay Gets FDA OK as CDx for Dizal's Zegfrovy and for Solid Tumor Profiling</t>
   </si>
 </sst>
 </file>
@@ -561,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -599,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -610,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -621,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -632,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -643,10 +652,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -654,10 +663,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -665,10 +674,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -676,10 +685,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -687,10 +696,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -698,10 +707,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -709,10 +718,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -720,10 +729,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -731,10 +740,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -742,10 +751,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -753,10 +762,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -764,10 +773,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -775,10 +784,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -786,10 +795,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -797,10 +806,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -808,10 +817,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -819,10 +828,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -830,10 +839,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -841,10 +850,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -852,10 +861,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -863,10 +872,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -874,10 +883,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -885,10 +894,32 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -921,6 +952,8 @@
     <hyperlink ref="A27" r:id="rId26"/>
     <hyperlink ref="A28" r:id="rId27"/>
     <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>link</t>
   </si>
@@ -115,6 +115,12 @@
     <t>https://www.360dx.com/sequencing/thermo-fisher-ngs-assay-gets-fda-ok-cdx-dizals-zegfrovy-and-solid-tumor-profiling</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/sequencing/thermo-fisher-nabs-fda-approval-ngs-based-cdx-boehringer-ingelheim-lung-cancer-drug</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/sequencing/thermo-fisher-nabs-fda-approval-ngs-based-cdx-boehringer-ingelheim-lung-cancer-drug</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -200,6 +206,9 @@
   </si>
   <si>
     <t>Thermo Fisher NGS Assay Gets FDA OK as CDx for Dizal's Zegfrovy and for Solid Tumor Profiling</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Nabs FDA Approval for NGS-Based CDx for Boehringer Ingelheim Lung Cancer Drug</t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -608,10 +617,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -619,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -630,10 +639,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -641,10 +650,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -652,10 +661,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -663,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -674,10 +683,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -685,10 +694,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -696,10 +705,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -707,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -718,10 +727,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -729,10 +738,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -740,10 +749,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -751,10 +760,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -762,10 +771,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -773,10 +782,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -784,10 +793,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -795,10 +804,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -806,10 +815,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -817,10 +826,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -828,10 +837,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -839,10 +848,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -850,10 +859,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -861,10 +870,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -872,10 +881,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -883,10 +892,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -894,10 +903,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -905,10 +914,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -916,10 +925,32 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
-        <v>61</v>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -954,6 +985,8 @@
     <hyperlink ref="A29" r:id="rId28"/>
     <hyperlink ref="A30" r:id="rId29"/>
     <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>link</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>https://www.360dx.com/sequencing/thermo-fisher-nabs-fda-approval-ngs-based-cdx-boehringer-ingelheim-lung-cancer-drug</t>
+  </si>
+  <si>
+    <t>https://www.genomeweb.com/cancer/thermo-fisher-nabs-fda-approval-ngs-based-cdx-boehringer-ingelheim-lung-cancer-drug</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/thermo-fisher-nabs-fda-approval-ngs-based-cdx-boehringer-ingelheim-lung-cancer-drug</t>
   </si>
   <si>
     <t>companion diagnostic</t>
@@ -579,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -617,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -628,10 +634,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -639,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -650,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -661,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -672,10 +678,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -683,10 +689,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -694,10 +700,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -705,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -716,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -727,10 +733,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -738,10 +744,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -749,10 +755,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -760,10 +766,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -771,10 +777,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -782,10 +788,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -793,10 +799,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -804,10 +810,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -815,10 +821,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -826,10 +832,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -837,10 +843,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -848,10 +854,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -859,10 +865,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -870,10 +876,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -881,10 +887,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -892,10 +898,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -903,10 +909,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -914,10 +920,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -925,10 +931,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -936,10 +942,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -947,10 +953,32 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" t="s">
-        <v>64</v>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -987,6 +1015,8 @@
     <hyperlink ref="A31" r:id="rId30"/>
     <hyperlink ref="A32" r:id="rId31"/>
     <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>link</t>
   </si>
@@ -127,6 +127,9 @@
     <t>https://www.360dx.com/cancer/thermo-fisher-nabs-fda-approval-ngs-based-cdx-boehringer-ingelheim-lung-cancer-drug</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/fda-approves-agilent-cdx-assay-use-bristol-myers-squibb-immunotherapies</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -215,6 +218,9 @@
   </si>
   <si>
     <t>Thermo Fisher Nabs FDA Approval for NGS-Based CDx for Boehringer Ingelheim Lung Cancer Drug</t>
+  </si>
+  <si>
+    <t>FDA Approves Agilent CDx Assay for Use With Bristol Myers Squibb Immunotherapies</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +618,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -623,10 +629,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -634,10 +640,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -645,10 +651,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -656,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -667,10 +673,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -678,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -689,10 +695,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -700,10 +706,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -711,10 +717,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -722,10 +728,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -733,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -744,10 +750,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -755,10 +761,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -766,10 +772,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -777,10 +783,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -788,10 +794,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -799,10 +805,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -810,10 +816,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -821,10 +827,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -832,10 +838,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -843,10 +849,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -854,10 +860,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -865,10 +871,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -876,10 +882,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -887,10 +893,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -898,10 +904,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -909,10 +915,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -920,10 +926,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -931,10 +937,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -942,10 +948,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -953,10 +959,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -964,10 +970,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -975,10 +981,21 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1017,6 +1034,7 @@
     <hyperlink ref="A33" r:id="rId32"/>
     <hyperlink ref="A34" r:id="rId33"/>
     <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>link</t>
   </si>
@@ -130,6 +130,12 @@
     <t>https://www.360dx.com/cancer/fda-approves-agilent-cdx-assay-use-bristol-myers-squibb-immunotherapies</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/caris-life-sciences-eyes-wider-clinical-adoption-tests-new-validation-data</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/caris-life-sciences-eyes-wider-clinical-adoption-tests-new-validation-data</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -221,6 +227,9 @@
   </si>
   <si>
     <t>FDA Approves Agilent CDx Assay for Use With Bristol Myers Squibb Immunotherapies</t>
+  </si>
+  <si>
+    <t>Caris Life Sciences Eyes Wider Clinical Adoption of Tests With New Validation Data</t>
   </si>
 </sst>
 </file>
@@ -591,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -629,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -640,10 +649,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -651,10 +660,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -662,10 +671,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -673,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -684,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -695,10 +704,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -706,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -717,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -728,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -739,10 +748,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -750,10 +759,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -761,10 +770,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -772,10 +781,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -783,10 +792,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -794,10 +803,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -805,10 +814,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -816,10 +825,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -827,10 +836,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -838,10 +847,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -849,10 +858,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -860,10 +869,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -871,10 +880,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -882,10 +891,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -893,10 +902,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -904,10 +913,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -915,10 +924,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -926,10 +935,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -937,10 +946,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -948,10 +957,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -959,10 +968,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -970,10 +979,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -981,10 +990,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -992,10 +1001,32 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" t="s">
-        <v>68</v>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1035,6 +1066,8 @@
     <hyperlink ref="A34" r:id="rId33"/>
     <hyperlink ref="A35" r:id="rId34"/>
     <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>link</t>
   </si>
@@ -136,6 +136,9 @@
     <t>https://www.360dx.com/cancer/caris-life-sciences-eyes-wider-clinical-adoption-tests-new-validation-data</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/agilent-secures-ivdr-class-c-certification-colorectal-cancer-cdx</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
   </si>
   <si>
     <t>Caris Life Sciences Eyes Wider Clinical Adoption of Tests With New Validation Data</t>
+  </si>
+  <si>
+    <t>Agilent Secures IVDR Class C Certification for Colorectal Cancer CDx</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -638,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -649,10 +655,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -660,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -671,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -682,10 +688,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -693,10 +699,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -704,10 +710,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -715,10 +721,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -726,10 +732,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -737,10 +743,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -748,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -759,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -770,10 +776,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -781,10 +787,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -792,10 +798,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -803,10 +809,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -814,10 +820,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -825,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -836,10 +842,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -847,10 +853,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -858,10 +864,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -869,10 +875,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -880,10 +886,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -891,10 +897,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -902,10 +908,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -913,10 +919,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -924,10 +930,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -935,10 +941,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -946,10 +952,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -957,10 +963,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -968,10 +974,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -979,10 +985,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -990,10 +996,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1001,10 +1007,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1012,10 +1018,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1023,10 +1029,21 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1068,6 +1085,7 @@
     <hyperlink ref="A36" r:id="rId35"/>
     <hyperlink ref="A37" r:id="rId36"/>
     <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>link</t>
   </si>
@@ -139,6 +139,9 @@
     <t>https://www.360dx.com/cancer/agilent-secures-ivdr-class-c-certification-colorectal-cancer-cdx</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/roche-nabs-ce-ivdr-marking-her2-cdx-assay-breast-biliary-tract-cancer</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t>Agilent Secures IVDR Class C Certification for Colorectal Cancer CDx</t>
+  </si>
+  <si>
+    <t>Roche Nabs CE-IVDR Marking for HER2 CDx Assay for Breast, Biliary Tract Cancer</t>
   </si>
 </sst>
 </file>
@@ -606,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,10 +639,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -644,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -655,10 +661,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -666,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -677,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -688,10 +694,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -699,10 +705,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -710,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -721,10 +727,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -732,10 +738,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -743,10 +749,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -754,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -765,10 +771,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -776,10 +782,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -787,10 +793,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -798,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -809,10 +815,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -820,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -831,10 +837,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -842,10 +848,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -853,10 +859,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -864,10 +870,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -875,10 +881,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -886,10 +892,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -897,10 +903,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -908,10 +914,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -919,10 +925,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -930,10 +936,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -941,10 +947,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -952,10 +958,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -963,10 +969,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -974,10 +980,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -985,10 +991,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -996,10 +1002,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1007,10 +1013,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1018,10 +1024,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1029,10 +1035,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1040,10 +1046,21 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1086,6 +1103,7 @@
     <hyperlink ref="A37" r:id="rId36"/>
     <hyperlink ref="A38" r:id="rId37"/>
     <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>link</t>
   </si>
@@ -142,6 +142,12 @@
     <t>https://www.360dx.com/cancer/roche-nabs-ce-ivdr-marking-her2-cdx-assay-breast-biliary-tract-cancer</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/biocartis-gets-fda-approval-msi-companion-diagnostic</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/biocartis-gets-fda-approval-msi-companion-diagnostic</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -242,6 +248,9 @@
   </si>
   <si>
     <t>Roche Nabs CE-IVDR Marking for HER2 CDx Assay for Breast, Biliary Tract Cancer</t>
+  </si>
+  <si>
+    <t>Biocartis Gets FDA Approval for MSI Companion Diagnostic</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -650,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -661,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -672,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -683,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -694,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -705,10 +714,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -716,10 +725,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -727,10 +736,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -738,10 +747,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -749,10 +758,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -760,10 +769,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -771,10 +780,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -782,10 +791,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -793,10 +802,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -804,10 +813,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -815,10 +824,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -826,10 +835,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -837,10 +846,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -848,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -859,10 +868,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -870,10 +879,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -881,10 +890,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -892,10 +901,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -903,10 +912,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -914,10 +923,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -925,10 +934,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -936,10 +945,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -947,10 +956,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -958,10 +967,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -969,10 +978,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -980,10 +989,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -991,10 +1000,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1002,10 +1011,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1013,10 +1022,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1024,10 +1033,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1035,10 +1044,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1046,10 +1055,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1057,10 +1066,32 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" t="s">
-        <v>75</v>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1104,6 +1135,8 @@
     <hyperlink ref="A38" r:id="rId37"/>
     <hyperlink ref="A39" r:id="rId38"/>
     <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>link</t>
   </si>
@@ -148,6 +148,15 @@
     <t>https://www.360dx.com/cancer/biocartis-gets-fda-approval-msi-companion-diagnostic</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/amoydx-lung-cancer-panel-nabs-japanese-approval-cdx-non-small-cell-lung-cancer-drug-ibtrozi</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/amoydx-lung-cancer-panel-nabs-japanese-approval-cdx-non-small-cell-lung-cancer-drug-ibtrozi</t>
+  </si>
+  <si>
+    <t>https://www.medpagetoday.com/meetingcoverage/ims/117536</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -251,6 +260,12 @@
   </si>
   <si>
     <t>Biocartis Gets FDA Approval for MSI Companion Diagnostic</t>
+  </si>
+  <si>
+    <t>AmoyDx Lung Cancer Panel Nabs Japanese Approval as CDx for Non-Small Cell Lung Cancer Drug Ibtrozi</t>
+  </si>
+  <si>
+    <t>Elranatamab-Based Triplet Effective in Transplant-Ineligible Myeloma</t>
   </si>
 </sst>
 </file>
@@ -621,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -659,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -670,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -681,10 +696,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -692,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -703,10 +718,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -714,10 +729,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -725,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -736,10 +751,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -747,10 +762,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -758,10 +773,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -769,10 +784,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -780,10 +795,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -791,10 +806,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -802,10 +817,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -813,10 +828,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -824,10 +839,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -835,10 +850,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -846,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -857,10 +872,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -868,10 +883,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -879,10 +894,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -890,10 +905,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -901,10 +916,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -912,10 +927,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -923,10 +938,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -934,10 +949,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -945,10 +960,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -956,10 +971,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -967,10 +982,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -978,10 +993,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -989,10 +1004,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1000,10 +1015,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1011,10 +1026,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1022,10 +1037,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1033,10 +1048,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1044,10 +1059,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1055,10 +1070,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1066,10 +1081,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1077,10 +1092,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1088,10 +1103,43 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C42" t="s">
-        <v>78</v>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1137,6 +1185,9 @@
     <hyperlink ref="A40" r:id="rId39"/>
     <hyperlink ref="A41" r:id="rId40"/>
     <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
   <si>
     <t>link</t>
   </si>
@@ -157,6 +157,9 @@
     <t>https://www.medpagetoday.com/meetingcoverage/ims/117536</t>
   </si>
   <si>
+    <t>https://www.medpagetoday.com/meetingcoverage/ims/117570</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -266,6 +269,9 @@
   </si>
   <si>
     <t>Elranatamab-Based Triplet Effective in Transplant-Ineligible Myeloma</t>
+  </si>
+  <si>
+    <t>Linvoseltamab Promising in High-Risk Smoldering Multiple Myeloma</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,10 +669,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -674,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -685,10 +691,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -696,10 +702,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -707,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -718,10 +724,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -729,10 +735,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -740,10 +746,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -751,10 +757,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -762,10 +768,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -773,10 +779,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -784,10 +790,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -795,10 +801,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -806,10 +812,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -817,10 +823,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -828,10 +834,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -839,10 +845,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -850,10 +856,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -861,10 +867,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -872,10 +878,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -883,10 +889,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -894,10 +900,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -905,10 +911,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -916,10 +922,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -927,10 +933,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -938,10 +944,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -949,10 +955,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -960,10 +966,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -971,10 +977,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -982,10 +988,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -993,10 +999,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1004,10 +1010,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1015,10 +1021,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1026,10 +1032,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1037,10 +1043,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1048,10 +1054,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1059,10 +1065,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1070,10 +1076,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1081,10 +1087,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1092,10 +1098,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1103,10 +1109,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1114,10 +1120,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1125,10 +1131,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1136,10 +1142,21 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1188,6 +1205,7 @@
     <hyperlink ref="A43" r:id="rId42"/>
     <hyperlink ref="A44" r:id="rId43"/>
     <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>link</t>
   </si>
@@ -160,6 +160,15 @@
     <t>https://www.medpagetoday.com/meetingcoverage/ims/117570</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/ogt-assay-nabs-fda-authorization-cdx-syndaxs-revuforj-acute-leukemia</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/agilent-technologies-lunit-partner-cancer-cdx-development</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/ogt-assay-nabs-fda-authorization-cdx-syndaxs-revuforj-acute-leukemia</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>CDx, companion diagnostic</t>
   </si>
   <si>
+    <t>CDx, companion diagnostics</t>
+  </si>
+  <si>
     <t>Beckman Coulter, Siemens Healthineers, Abbott, Others Gain 510(k) Clearances in March</t>
   </si>
   <si>
@@ -272,6 +284,12 @@
   </si>
   <si>
     <t>Linvoseltamab Promising in High-Risk Smoldering Multiple Myeloma</t>
+  </si>
+  <si>
+    <t>OGT Assay Nabs FDA Authorization as CDx for Syndax's Revuforj in Acute Leukemia</t>
+  </si>
+  <si>
+    <t>Agilent Technologies, Lunit Partner for Cancer CDx Development</t>
   </si>
 </sst>
 </file>
@@ -642,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,10 +687,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,10 +698,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -691,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -702,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -713,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -724,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -735,10 +753,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -746,10 +764,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -757,10 +775,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -768,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -779,10 +797,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -790,10 +808,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -801,10 +819,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -812,10 +830,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -823,10 +841,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -834,10 +852,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -845,10 +863,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -856,10 +874,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -867,10 +885,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -878,10 +896,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -889,10 +907,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -900,10 +918,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -911,10 +929,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -922,10 +940,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -933,10 +951,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -944,10 +962,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -955,10 +973,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -966,10 +984,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -977,10 +995,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -988,10 +1006,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -999,10 +1017,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1010,10 +1028,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1021,10 +1039,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1032,10 +1050,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1043,10 +1061,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1054,10 +1072,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1065,10 +1083,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1076,10 +1094,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1087,10 +1105,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1098,10 +1116,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1109,10 +1127,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1120,10 +1138,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1131,10 +1149,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1142,10 +1160,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1153,10 +1171,43 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C46" t="s">
-        <v>85</v>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1206,6 +1257,9 @@
     <hyperlink ref="A44" r:id="rId43"/>
     <hyperlink ref="A45" r:id="rId44"/>
     <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>link</t>
   </si>
@@ -169,6 +169,12 @@
     <t>https://www.360dx.com/cancer/ogt-assay-nabs-fda-authorization-cdx-syndaxs-revuforj-acute-leukemia</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/myriad-genetics-sophia-genetics-collaborate-cancer-liquid-biopsy-companion-diagnostic</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/myriad-genetics-sophia-genetics-collaborate-cancer-liquid-biopsy-companion-diagnostic</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -290,6 +296,9 @@
   </si>
   <si>
     <t>Agilent Technologies, Lunit Partner for Cancer CDx Development</t>
+  </si>
+  <si>
+    <t>Myriad Genetics, Sophia Genetics to Collaborate on Cancer Liquid Biopsy Companion Diagnostic</t>
   </si>
 </sst>
 </file>
@@ -660,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +696,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -698,10 +707,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -709,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -720,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -731,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -742,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -753,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -764,10 +773,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -775,10 +784,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -786,10 +795,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -797,10 +806,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -808,10 +817,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -819,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -830,10 +839,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -841,10 +850,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -852,10 +861,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -863,10 +872,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -874,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -885,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -896,10 +905,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -907,10 +916,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -918,10 +927,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -929,10 +938,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -940,10 +949,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -951,10 +960,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -962,10 +971,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -973,10 +982,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -984,10 +993,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -995,10 +1004,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1006,10 +1015,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1017,10 +1026,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1028,10 +1037,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1039,10 +1048,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1050,10 +1059,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1061,10 +1070,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1072,10 +1081,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1083,10 +1092,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1094,10 +1103,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1105,10 +1114,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1116,10 +1125,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1127,10 +1136,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1138,10 +1147,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1149,10 +1158,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1160,10 +1169,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1171,10 +1180,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1182,10 +1191,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1193,10 +1202,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1204,10 +1213,32 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" t="s">
-        <v>90</v>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1260,6 +1291,8 @@
     <hyperlink ref="A47" r:id="rId46"/>
     <hyperlink ref="A48" r:id="rId47"/>
     <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>link</t>
   </si>
@@ -175,6 +175,12 @@
     <t>https://www.360dx.com/cancer/myriad-genetics-sophia-genetics-collaborate-cancer-liquid-biopsy-companion-diagnostic</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/burning-rocks-sequencing-test-approved-japan-cdx-truqap-breast-cancer</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/burning-rocks-sequencing-test-approved-japan-cdx-truqap-breast-cancer</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -299,6 +305,9 @@
   </si>
   <si>
     <t>Myriad Genetics, Sophia Genetics to Collaborate on Cancer Liquid Biopsy Companion Diagnostic</t>
+  </si>
+  <si>
+    <t>Burning Rock's Sequencing Test Approved in Japan as a CDx for Truqap in Breast Cancer</t>
   </si>
 </sst>
 </file>
@@ -669,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,10 +705,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -707,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -718,10 +727,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -729,10 +738,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -740,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -751,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -762,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -773,10 +782,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -784,10 +793,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -795,10 +804,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -806,10 +815,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -817,10 +826,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -828,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -839,10 +848,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -850,10 +859,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -861,10 +870,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -872,10 +881,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -883,10 +892,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -894,10 +903,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -905,10 +914,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -916,10 +925,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -927,10 +936,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -938,10 +947,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -949,10 +958,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -960,10 +969,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -971,10 +980,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -982,10 +991,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -993,10 +1002,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1004,10 +1013,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1015,10 +1024,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1026,10 +1035,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1037,10 +1046,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1048,10 +1057,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1059,10 +1068,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1070,10 +1079,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1081,10 +1090,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1092,10 +1101,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1103,10 +1112,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1114,10 +1123,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1125,10 +1134,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1136,10 +1145,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1147,10 +1156,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1158,10 +1167,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1169,10 +1178,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1180,10 +1189,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1191,10 +1200,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1202,10 +1211,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1213,10 +1222,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1224,10 +1233,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1235,10 +1244,32 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" t="s">
-        <v>94</v>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1293,6 +1324,8 @@
     <hyperlink ref="A49" r:id="rId48"/>
     <hyperlink ref="A50" r:id="rId49"/>
     <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>link</t>
   </si>
@@ -181,6 +181,12 @@
     <t>https://www.360dx.com/cancer/burning-rocks-sequencing-test-approved-japan-cdx-truqap-breast-cancer</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/companion-diagnostics/biocartis-positioning-idylla-system-sample-answer-oncology-cdx-tests</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/companion-diagnostics/biocartis-positioning-idylla-system-sample-answer-oncology-cdx-tests</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -308,6 +314,9 @@
   </si>
   <si>
     <t>Burning Rock's Sequencing Test Approved in Japan as a CDx for Truqap in Breast Cancer</t>
+  </si>
+  <si>
+    <t>Biocartis Positioning Idylla System for Sample-to-Answer Oncology CDx Tests</t>
   </si>
 </sst>
 </file>
@@ -678,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -716,10 +725,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -727,10 +736,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -738,10 +747,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -749,10 +758,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -760,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -771,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -782,10 +791,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -793,10 +802,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -804,10 +813,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -815,10 +824,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -826,10 +835,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -837,10 +846,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -848,10 +857,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -859,10 +868,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -870,10 +879,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -881,10 +890,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -892,10 +901,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -903,10 +912,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -914,10 +923,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -925,10 +934,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -936,10 +945,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -947,10 +956,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -958,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -969,10 +978,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -980,10 +989,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -991,10 +1000,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1002,10 +1011,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1013,10 +1022,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1024,10 +1033,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1035,10 +1044,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1046,10 +1055,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1057,10 +1066,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1068,10 +1077,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1079,10 +1088,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1090,10 +1099,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1101,10 +1110,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1112,10 +1121,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1123,10 +1132,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1134,10 +1143,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1145,10 +1154,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1156,10 +1165,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1167,10 +1176,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1178,10 +1187,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1189,10 +1198,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1200,10 +1209,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1211,10 +1220,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1222,10 +1231,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1233,10 +1242,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1244,10 +1253,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1255,10 +1264,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1266,10 +1275,32 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" t="s">
-        <v>97</v>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1326,6 +1357,8 @@
     <hyperlink ref="A51" r:id="rId50"/>
     <hyperlink ref="A52" r:id="rId51"/>
     <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
   <si>
     <t>link</t>
   </si>
@@ -187,6 +187,12 @@
     <t>https://www.360dx.com/companion-diagnostics/biocartis-positioning-idylla-system-sample-answer-oncology-cdx-tests</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/guardant-health-blood-test-gets-fda-ok-cdx-eli-lilly-breast-cancer-drug-inluriyo</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/guardant-health-blood-test-gets-fda-ok-cdx-eli-lilly-breast-cancer-drug-inluriyo</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -317,6 +323,9 @@
   </si>
   <si>
     <t>Biocartis Positioning Idylla System for Sample-to-Answer Oncology CDx Tests</t>
+  </si>
+  <si>
+    <t>Guardant Health Blood Test Gets FDA OK as CDx for Eli Lilly Breast Cancer Drug Inluriyo</t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -725,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -736,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -747,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -758,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -769,10 +778,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -780,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -791,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -802,10 +811,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -813,10 +822,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -824,10 +833,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -835,10 +844,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -846,10 +855,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -857,10 +866,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -868,10 +877,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -879,10 +888,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -890,10 +899,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -901,10 +910,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -912,10 +921,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -923,10 +932,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -934,10 +943,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -945,10 +954,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -956,10 +965,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -967,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -978,10 +987,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -989,10 +998,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1000,10 +1009,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1011,10 +1020,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1022,10 +1031,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1033,10 +1042,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1044,10 +1053,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1055,10 +1064,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1066,10 +1075,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1077,10 +1086,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1088,10 +1097,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1099,10 +1108,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1110,10 +1119,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1121,10 +1130,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1132,10 +1141,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1143,10 +1152,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1154,10 +1163,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1165,10 +1174,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1176,10 +1185,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1187,10 +1196,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1198,10 +1207,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1209,10 +1218,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1220,10 +1229,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1231,10 +1240,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1242,10 +1251,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1253,10 +1262,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1264,10 +1273,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1275,10 +1284,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1286,10 +1295,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1297,10 +1306,32 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C55" t="s">
-        <v>100</v>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1359,6 +1390,8 @@
     <hyperlink ref="A53" r:id="rId52"/>
     <hyperlink ref="A54" r:id="rId53"/>
     <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>link</t>
   </si>
@@ -193,6 +193,9 @@
     <t>https://www.360dx.com/cancer/guardant-health-blood-test-gets-fda-ok-cdx-eli-lilly-breast-cancer-drug-inluriyo</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/companion-diagnostics/celebrating-10th-anniversary-its-pd-l1-cdx-agilent-sets-sights-next-gen</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t>Guardant Health Blood Test Gets FDA OK as CDx for Eli Lilly Breast Cancer Drug Inluriyo</t>
+  </si>
+  <si>
+    <t>Celebrating the 10th Anniversary of its PD-L1 CDx, Agilent Sets Sights on Next-Gen Diagnostic Tools</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -734,10 +740,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -745,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -756,10 +762,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -767,10 +773,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -778,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -789,10 +795,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -800,10 +806,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -811,10 +817,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -822,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -833,10 +839,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -844,10 +850,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -855,10 +861,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -866,10 +872,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -877,10 +883,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -888,10 +894,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -899,10 +905,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -910,10 +916,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -921,10 +927,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -932,10 +938,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -943,10 +949,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -954,10 +960,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -965,10 +971,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -976,10 +982,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -987,10 +993,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -998,10 +1004,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1009,10 +1015,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1020,10 +1026,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1031,10 +1037,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1042,10 +1048,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1053,10 +1059,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1064,10 +1070,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1075,10 +1081,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1086,10 +1092,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1097,10 +1103,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1108,10 +1114,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1119,10 +1125,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1130,10 +1136,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1141,10 +1147,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1152,10 +1158,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1163,10 +1169,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1174,10 +1180,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1185,10 +1191,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1196,10 +1202,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1207,10 +1213,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1218,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1229,10 +1235,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1240,10 +1246,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1251,10 +1257,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1262,10 +1268,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1273,10 +1279,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1284,10 +1290,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1295,10 +1301,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1306,10 +1312,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1317,10 +1323,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1328,10 +1334,21 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1392,6 +1409,7 @@
     <hyperlink ref="A55" r:id="rId54"/>
     <hyperlink ref="A56" r:id="rId55"/>
     <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
   <si>
     <t>link</t>
   </si>
@@ -196,6 +196,12 @@
     <t>https://www.genomeweb.com/companion-diagnostics/celebrating-10th-anniversary-its-pd-l1-cdx-agilent-sets-sights-next-gen</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/geneseeq-nabs-china-nmpa-approval-pan-solid-tumor-test-cdx-roches-rozlytrek</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/geneseeq-nabs-china-nmpa-approval-pan-solid-tumor-test-cdx-roches-rozlytrek</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -332,6 +338,9 @@
   </si>
   <si>
     <t>Celebrating the 10th Anniversary of its PD-L1 CDx, Agilent Sets Sights on Next-Gen Diagnostic Tools</t>
+  </si>
+  <si>
+    <t>Geneseeq Nabs China NMPA Approval for Pan-Solid Tumor Test as CDx for Roche's Rozlytrek</t>
   </si>
 </sst>
 </file>
@@ -702,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -740,10 +749,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -751,10 +760,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -762,10 +771,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -773,10 +782,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -784,10 +793,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -795,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -806,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -817,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -828,10 +837,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -839,10 +848,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -850,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -861,10 +870,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -872,10 +881,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -883,10 +892,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -894,10 +903,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -905,10 +914,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -916,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -927,10 +936,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -938,10 +947,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -949,10 +958,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -960,10 +969,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -971,10 +980,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -982,10 +991,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -993,10 +1002,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1004,10 +1013,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1015,10 +1024,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1026,10 +1035,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1037,10 +1046,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1048,10 +1057,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1059,10 +1068,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1070,10 +1079,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1081,10 +1090,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1092,10 +1101,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1103,10 +1112,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1114,10 +1123,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1125,10 +1134,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1136,10 +1145,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1147,10 +1156,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1158,10 +1167,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1169,10 +1178,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1180,10 +1189,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1191,10 +1200,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1202,10 +1211,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1213,10 +1222,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1224,10 +1233,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1235,10 +1244,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1246,10 +1255,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1257,10 +1266,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1268,10 +1277,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1279,10 +1288,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1290,10 +1299,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1301,10 +1310,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1312,10 +1321,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1323,10 +1332,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1334,10 +1343,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1345,10 +1354,32 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1410,6 +1441,8 @@
     <hyperlink ref="A56" r:id="rId55"/>
     <hyperlink ref="A57" r:id="rId56"/>
     <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
   <si>
     <t>link</t>
   </si>
@@ -202,6 +202,12 @@
     <t>https://www.360dx.com/cancer/geneseeq-nabs-china-nmpa-approval-pan-solid-tumor-test-cdx-roches-rozlytrek</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/promega-receives-fda-approval-oncomate-msi-dx-analysis-system-endometrial-cancer-cdx</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/promega-receives-fda-approval-oncomate-msi-dx-analysis-system-endometrial-cancer-cdx</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
   </si>
   <si>
     <t>Geneseeq Nabs China NMPA Approval for Pan-Solid Tumor Test as CDx for Roche's Rozlytrek</t>
+  </si>
+  <si>
+    <t>Promega Receives FDA Approval for OncoMate MSI Dx Analysis System as Endometrial Cancer CDx</t>
   </si>
 </sst>
 </file>
@@ -711,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,10 +747,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -749,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -760,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -771,10 +780,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -782,10 +791,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -793,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -804,10 +813,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -815,10 +824,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -826,10 +835,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -837,10 +846,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -848,10 +857,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -859,10 +868,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -870,10 +879,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -881,10 +890,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -892,10 +901,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -903,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -914,10 +923,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -925,10 +934,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -936,10 +945,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -947,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -958,10 +967,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -969,10 +978,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -980,10 +989,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -991,10 +1000,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1002,10 +1011,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1013,10 +1022,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1024,10 +1033,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1035,10 +1044,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1046,10 +1055,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1057,10 +1066,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1068,10 +1077,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1079,10 +1088,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1090,10 +1099,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1101,10 +1110,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1112,10 +1121,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1123,10 +1132,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1134,10 +1143,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1145,10 +1154,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1156,10 +1165,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1167,10 +1176,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1178,10 +1187,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1189,10 +1198,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1200,10 +1209,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1211,10 +1220,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1222,10 +1231,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1233,10 +1242,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1244,10 +1253,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1255,10 +1264,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1266,10 +1275,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1277,10 +1286,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1288,10 +1297,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1299,10 +1308,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1310,10 +1319,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1321,10 +1330,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1332,10 +1341,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1343,10 +1352,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1354,10 +1363,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1365,10 +1374,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1376,10 +1385,32 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="s">
-        <v>108</v>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1443,6 +1474,8 @@
     <hyperlink ref="A58" r:id="rId57"/>
     <hyperlink ref="A59" r:id="rId58"/>
     <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>link</t>
   </si>
@@ -208,6 +208,9 @@
     <t>https://www.360dx.com/cancer/promega-receives-fda-approval-oncomate-msi-dx-analysis-system-endometrial-cancer-cdx</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/medtech/promega-msi-tech-wins-fda-approval-companion-diagnostic-keytruda-lenvima-combo-uterine</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -350,6 +353,9 @@
   </si>
   <si>
     <t>Promega Receives FDA Approval for OncoMate MSI Dx Analysis System as Endometrial Cancer CDx</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/medtech/promega-msi-tech-wins-fda-approval-companion-diagnostic-keytruda-lenvima-combo-uterine" hreflang="en"&gt;Promega wins FDA approval as companion diagnostic for Keytruda-Lenvima combo in uterine cancer&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -758,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -769,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -780,10 +786,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -791,10 +797,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -802,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -813,10 +819,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -824,10 +830,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -835,10 +841,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -846,10 +852,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -857,10 +863,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -868,10 +874,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -879,10 +885,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -890,10 +896,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -901,10 +907,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -912,10 +918,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -923,10 +929,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -934,10 +940,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -945,10 +951,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -956,10 +962,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -967,10 +973,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -978,10 +984,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -989,10 +995,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1000,10 +1006,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1011,10 +1017,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1022,10 +1028,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1033,10 +1039,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1044,10 +1050,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1055,10 +1061,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1066,10 +1072,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1077,10 +1083,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1088,10 +1094,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1099,10 +1105,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1110,10 +1116,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1121,10 +1127,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1132,10 +1138,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1143,10 +1149,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1154,10 +1160,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1165,10 +1171,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1176,10 +1182,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1187,10 +1193,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1198,10 +1204,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1209,10 +1215,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1220,10 +1226,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1231,10 +1237,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1242,10 +1248,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1253,10 +1259,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1264,10 +1270,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1275,10 +1281,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1286,10 +1292,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1297,10 +1303,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1308,10 +1314,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1319,10 +1325,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1330,10 +1336,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1341,10 +1347,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1352,10 +1358,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1363,10 +1369,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1374,10 +1380,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1385,10 +1391,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1396,10 +1402,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1407,10 +1413,21 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-      <c r="C62" t="s">
-        <v>111</v>
+      <c r="C63" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1476,6 +1493,7 @@
     <hyperlink ref="A60" r:id="rId59"/>
     <hyperlink ref="A61" r:id="rId60"/>
     <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>link</t>
   </si>
@@ -211,6 +211,12 @@
     <t>https://www.fiercebiotech.com/medtech/promega-msi-tech-wins-fda-approval-companion-diagnostic-keytruda-lenvima-combo-uterine</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/regulatory-news-fda-approvals/thermo-fisher-receives-fda-approval-ngs-based-cdx-bayer-lung-cancer</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/regulatory-news-fda-approvals/thermo-fisher-receives-fda-approval-ngs-based-cdx-bayer-lung-cancer</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -356,6 +362,9 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/medtech/promega-msi-tech-wins-fda-approval-companion-diagnostic-keytruda-lenvima-combo-uterine" hreflang="en"&gt;Promega wins FDA approval as companion diagnostic for Keytruda-Lenvima combo in uterine cancer&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Receives FDA Approval for NGS-Based CDx for Bayer Lung Cancer Therapy</t>
   </si>
 </sst>
 </file>
@@ -726,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -753,10 +762,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -764,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -775,10 +784,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -786,10 +795,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -797,10 +806,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -808,10 +817,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -819,10 +828,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -830,10 +839,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -841,10 +850,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -852,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -863,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -874,10 +883,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -885,10 +894,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -896,10 +905,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -907,10 +916,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -918,10 +927,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -929,10 +938,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -940,10 +949,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -951,10 +960,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -962,10 +971,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -973,10 +982,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -984,10 +993,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -995,10 +1004,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1006,10 +1015,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1017,10 +1026,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1028,10 +1037,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1039,10 +1048,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1050,10 +1059,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1061,10 +1070,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1072,10 +1081,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1083,10 +1092,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1094,10 +1103,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1105,10 +1114,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1116,10 +1125,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1127,10 +1136,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1138,10 +1147,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1149,10 +1158,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1160,10 +1169,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1171,10 +1180,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1182,10 +1191,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1193,10 +1202,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1204,10 +1213,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1215,10 +1224,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1226,10 +1235,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1237,10 +1246,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1248,10 +1257,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1259,10 +1268,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1270,10 +1279,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1281,10 +1290,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1292,10 +1301,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1303,10 +1312,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1314,10 +1323,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1325,10 +1334,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1336,10 +1345,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1347,10 +1356,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1358,10 +1367,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1369,10 +1378,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1380,10 +1389,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1391,10 +1400,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1402,10 +1411,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1413,10 +1422,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1424,10 +1433,32 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C63" t="s">
-        <v>113</v>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1494,6 +1525,8 @@
     <hyperlink ref="A61" r:id="rId60"/>
     <hyperlink ref="A62" r:id="rId61"/>
     <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
   <si>
     <t>link</t>
   </si>
@@ -217,6 +217,12 @@
     <t>https://www.360dx.com/regulatory-news-fda-approvals/thermo-fisher-receives-fda-approval-ngs-based-cdx-bayer-lung-cancer</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/fda-proposes-reclassification-companion-diagnostic-tests</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/fda-proposes-reclassification-companion-diagnostic-tests</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -365,6 +371,9 @@
   </si>
   <si>
     <t>Thermo Fisher Receives FDA Approval for NGS-Based CDx for Bayer Lung Cancer Therapy</t>
+  </si>
+  <si>
+    <t>FDA Proposes Reclassification of Companion Diagnostic Tests</t>
   </si>
 </sst>
 </file>
@@ -735,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,10 +771,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -773,10 +782,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -784,10 +793,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -795,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -806,10 +815,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -817,10 +826,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -828,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -839,10 +848,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -850,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -861,10 +870,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -872,10 +881,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -883,10 +892,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -894,10 +903,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -905,10 +914,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -916,10 +925,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -927,10 +936,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -938,10 +947,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -949,10 +958,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -960,10 +969,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -971,10 +980,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -982,10 +991,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -993,10 +1002,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1004,10 +1013,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1015,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1026,10 +1035,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1037,10 +1046,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1048,10 +1057,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1059,10 +1068,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1070,10 +1079,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1081,10 +1090,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1092,10 +1101,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1103,10 +1112,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1114,10 +1123,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1125,10 +1134,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1136,10 +1145,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1147,10 +1156,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1158,10 +1167,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1169,10 +1178,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1180,10 +1189,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1191,10 +1200,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1202,10 +1211,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1213,10 +1222,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1224,10 +1233,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1235,10 +1244,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1246,10 +1255,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1257,10 +1266,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1268,10 +1277,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1279,10 +1288,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1290,10 +1299,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1301,10 +1310,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1312,10 +1321,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1323,10 +1332,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1334,10 +1343,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1345,10 +1354,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1356,10 +1365,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1367,10 +1376,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1378,10 +1387,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1389,10 +1398,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1400,10 +1409,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1411,10 +1420,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1422,10 +1431,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1433,10 +1442,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1444,10 +1453,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1455,10 +1464,32 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C65" t="s">
-        <v>116</v>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1527,6 +1558,8 @@
     <hyperlink ref="A63" r:id="rId62"/>
     <hyperlink ref="A64" r:id="rId63"/>
     <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>link</t>
   </si>
@@ -223,6 +223,9 @@
     <t>https://www.360dx.com/cancer/fda-proposes-reclassification-companion-diagnostic-tests</t>
   </si>
   <si>
+    <t>https://www.360dx.com/business-news/top-five-articles-360dx-last-week-fda-aims-reclassify-cdx-tests-tempus-buying-oneome</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -374,6 +377,9 @@
   </si>
   <si>
     <t>FDA Proposes Reclassification of Companion Diagnostic Tests</t>
+  </si>
+  <si>
+    <t>Top Five Articles on 360Dx Last Week: FDA Aims to Reclassify CDx Tests; Tempus Buying OneOme Assets; More</t>
   </si>
 </sst>
 </file>
@@ -744,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -782,10 +788,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -793,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -804,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -815,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -826,10 +832,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -837,10 +843,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -848,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -859,10 +865,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -870,10 +876,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -881,10 +887,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -892,10 +898,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -903,10 +909,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -914,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -925,10 +931,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -936,10 +942,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -947,10 +953,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -958,10 +964,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -969,10 +975,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -980,10 +986,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -991,10 +997,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1002,10 +1008,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1013,10 +1019,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1024,10 +1030,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1035,10 +1041,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1046,10 +1052,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1057,10 +1063,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1068,10 +1074,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1079,10 +1085,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1090,10 +1096,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1101,10 +1107,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1112,10 +1118,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1123,10 +1129,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1134,10 +1140,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1145,10 +1151,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1156,10 +1162,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1167,10 +1173,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1178,10 +1184,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1189,10 +1195,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1200,10 +1206,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1211,10 +1217,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1222,10 +1228,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1233,10 +1239,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1244,10 +1250,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1255,10 +1261,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1266,10 +1272,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1277,10 +1283,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1288,10 +1294,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1299,10 +1305,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1310,10 +1316,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1321,10 +1327,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1332,10 +1338,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1343,10 +1349,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1354,10 +1360,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1365,10 +1371,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1376,10 +1382,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1387,10 +1393,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1398,10 +1404,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1409,10 +1415,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1420,10 +1426,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1431,10 +1437,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1442,10 +1448,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1453,10 +1459,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1464,10 +1470,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1475,10 +1481,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1486,10 +1492,21 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C67" t="s">
-        <v>119</v>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1560,6 +1577,7 @@
     <hyperlink ref="A65" r:id="rId64"/>
     <hyperlink ref="A66" r:id="rId65"/>
     <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="125">
   <si>
     <t>link</t>
   </si>
@@ -226,6 +226,12 @@
     <t>https://www.360dx.com/business-news/top-five-articles-360dx-last-week-fda-aims-reclassify-cdx-tests-tempus-buying-oneome</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/fda-proposal-reclassify-cdx-assays-may-broaden-opportunities-dx-manufacturers-experts-say</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/fda-proposal-reclassify-cdx-assays-may-broaden-opportunities-dx-manufacturers-experts-say</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -380,6 +386,9 @@
   </si>
   <si>
     <t>Top Five Articles on 360Dx Last Week: FDA Aims to Reclassify CDx Tests; Tempus Buying OneOme Assets; More</t>
+  </si>
+  <si>
+    <t>FDA Proposal to Reclassify CDx Assays May Broaden Opportunities for Dx Manufacturers, Experts Say</t>
   </si>
 </sst>
 </file>
@@ -750,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -788,10 +797,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -799,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -810,10 +819,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -821,10 +830,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -832,10 +841,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -843,10 +852,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -854,10 +863,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -865,10 +874,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -876,10 +885,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -887,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -898,10 +907,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -909,10 +918,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -920,10 +929,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -931,10 +940,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -942,10 +951,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -953,10 +962,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -964,10 +973,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -975,10 +984,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -986,10 +995,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -997,10 +1006,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1008,10 +1017,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1019,10 +1028,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1030,10 +1039,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1041,10 +1050,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1052,10 +1061,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1063,10 +1072,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1074,10 +1083,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1085,10 +1094,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1096,10 +1105,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1107,10 +1116,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1118,10 +1127,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1129,10 +1138,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1140,10 +1149,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1151,10 +1160,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1162,10 +1171,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1173,10 +1182,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1184,10 +1193,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1195,10 +1204,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1206,10 +1215,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1217,10 +1226,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1228,10 +1237,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1239,10 +1248,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1250,10 +1259,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1261,10 +1270,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1272,10 +1281,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1283,10 +1292,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1294,10 +1303,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1305,10 +1314,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1316,10 +1325,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1327,10 +1336,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1338,10 +1347,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1349,10 +1358,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1360,10 +1369,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1371,10 +1380,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1382,10 +1391,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1393,10 +1402,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1404,10 +1413,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1415,10 +1424,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1426,10 +1435,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1437,10 +1446,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1448,10 +1457,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1459,10 +1468,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1470,10 +1479,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1481,10 +1490,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1492,10 +1501,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1503,10 +1512,32 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C68" t="s">
-        <v>121</v>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1578,6 +1609,8 @@
     <hyperlink ref="A66" r:id="rId65"/>
     <hyperlink ref="A67" r:id="rId66"/>
     <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
   <si>
     <t>link</t>
   </si>
@@ -232,6 +232,9 @@
     <t>https://www.360dx.com/cancer/fda-proposal-reclassify-cdx-assays-may-broaden-opportunities-dx-manufacturers-experts-say</t>
   </si>
   <si>
+    <t>https://www.360dx.com/business-news/top-five-articles-360dx-last-week-roche-vaginitis-test-fda-reclassification-cdx</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>FDA Proposal to Reclassify CDx Assays May Broaden Opportunities for Dx Manufacturers, Experts Say</t>
+  </si>
+  <si>
+    <t>Top Five Articles on 360Dx Last Week: Roche Vaginitis Test; FDA Reclassification of CDx Assays; More</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -797,10 +803,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -808,10 +814,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -819,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,10 +836,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,10 +847,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -852,10 +858,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -863,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -874,10 +880,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -885,10 +891,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -896,10 +902,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -907,10 +913,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -918,10 +924,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -929,10 +935,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -940,10 +946,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -951,10 +957,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -962,10 +968,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -973,10 +979,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -984,10 +990,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -995,10 +1001,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1006,10 +1012,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1017,10 +1023,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1028,10 +1034,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1039,10 +1045,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1050,10 +1056,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1061,10 +1067,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1072,10 +1078,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1083,10 +1089,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1094,10 +1100,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1105,10 +1111,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1116,10 +1122,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1127,10 +1133,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1138,10 +1144,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1149,10 +1155,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1160,10 +1166,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1171,10 +1177,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1182,10 +1188,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1193,10 +1199,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1204,10 +1210,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1215,10 +1221,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1226,10 +1232,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1237,10 +1243,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1248,10 +1254,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1259,10 +1265,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1270,10 +1276,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1281,10 +1287,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1292,10 +1298,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1303,10 +1309,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1314,10 +1320,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1325,10 +1331,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1336,10 +1342,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1347,10 +1353,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1358,10 +1364,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1369,10 +1375,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1380,10 +1386,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1391,10 +1397,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1402,10 +1408,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1413,10 +1419,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1424,10 +1430,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1435,10 +1441,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1446,10 +1452,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1457,10 +1463,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1468,10 +1474,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1479,10 +1485,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1490,10 +1496,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1501,10 +1507,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1512,10 +1518,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1523,10 +1529,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1534,10 +1540,21 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1611,6 +1628,7 @@
     <hyperlink ref="A68" r:id="rId67"/>
     <hyperlink ref="A69" r:id="rId68"/>
     <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
   <si>
     <t>link</t>
   </si>
@@ -235,6 +235,12 @@
     <t>https://www.360dx.com/business-news/top-five-articles-360dx-last-week-roche-vaginitis-test-fda-reclassification-cdx</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/regulatory-news-fda-approvals/fda-expands-labels-roches-her2-cdx-assays-id-breast-cancer-patients</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/regulatory-news-fda-approvals/fda-expands-labels-roches-her2-cdx-assays-id-breast-cancer-patients</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -395,6 +401,9 @@
   </si>
   <si>
     <t>Top Five Articles on 360Dx Last Week: Roche Vaginitis Test; FDA Reclassification of CDx Assays; More</t>
+  </si>
+  <si>
+    <t>FDA Expands Labels For Roche's HER2 CDx Assays to ID Breast Cancer Patients Eligible For Enhertu</t>
   </si>
 </sst>
 </file>
@@ -765,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,10 +801,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -803,10 +812,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -814,10 +823,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -825,10 +834,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -836,10 +845,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -847,10 +856,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -858,10 +867,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -869,10 +878,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -880,10 +889,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -891,10 +900,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -902,10 +911,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -913,10 +922,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -924,10 +933,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -935,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -946,10 +955,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -957,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -968,10 +977,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -979,10 +988,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -990,10 +999,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1001,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1012,10 +1021,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1023,10 +1032,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1034,10 +1043,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1045,10 +1054,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1056,10 +1065,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1067,10 +1076,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1078,10 +1087,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1089,10 +1098,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1100,10 +1109,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1111,10 +1120,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1122,10 +1131,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1133,10 +1142,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1144,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1155,10 +1164,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1166,10 +1175,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1177,10 +1186,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1188,10 +1197,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1199,10 +1208,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1210,10 +1219,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1221,10 +1230,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1232,10 +1241,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1243,10 +1252,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1254,10 +1263,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1265,10 +1274,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1276,10 +1285,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1287,10 +1296,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1298,10 +1307,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1309,10 +1318,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1320,10 +1329,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1331,10 +1340,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1342,10 +1351,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1353,10 +1362,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1364,10 +1373,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1375,10 +1384,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1386,10 +1395,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1397,10 +1406,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1408,10 +1417,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1419,10 +1428,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1430,10 +1439,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1441,10 +1450,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1452,10 +1461,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1463,10 +1472,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1474,10 +1483,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1485,10 +1494,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1496,10 +1505,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1507,10 +1516,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1518,10 +1527,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1529,10 +1538,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1540,10 +1549,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1551,10 +1560,32 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C71" t="s">
-        <v>126</v>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1629,6 +1660,8 @@
     <hyperlink ref="A69" r:id="rId68"/>
     <hyperlink ref="A70" r:id="rId69"/>
     <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
   <si>
     <t>link</t>
   </si>
@@ -241,6 +241,12 @@
     <t>https://www.360dx.com/regulatory-news-fda-approvals/fda-expands-labels-roches-her2-cdx-assays-id-breast-cancer-patients</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/guardant-health-blood-test-receives-japanese-approval-cdx-eli-lilly-breast-cancer-drug</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/guardant-health-blood-test-receives-japanese-approval-cdx-eli-lilly-breast-cancer-drug</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -404,6 +410,9 @@
   </si>
   <si>
     <t>FDA Expands Labels For Roche's HER2 CDx Assays to ID Breast Cancer Patients Eligible For Enhertu</t>
+  </si>
+  <si>
+    <t>Guardant Health Blood Test Receives Japanese Approval as CDx for Eli Lilly Breast Cancer Drug</t>
   </si>
 </sst>
 </file>
@@ -774,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -812,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -823,10 +832,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -834,10 +843,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -845,10 +854,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -856,10 +865,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -867,10 +876,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -878,10 +887,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -889,10 +898,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -900,10 +909,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -911,10 +920,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -922,10 +931,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -933,10 +942,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -944,10 +953,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -955,10 +964,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -966,10 +975,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -977,10 +986,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -988,10 +997,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -999,10 +1008,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1010,10 +1019,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1021,10 +1030,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1032,10 +1041,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1043,10 +1052,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1054,10 +1063,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1065,10 +1074,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1076,10 +1085,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1087,10 +1096,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1098,10 +1107,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1109,10 +1118,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1120,10 +1129,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1131,10 +1140,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1142,10 +1151,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1153,10 +1162,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1164,10 +1173,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1175,10 +1184,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1186,10 +1195,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1197,10 +1206,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1208,10 +1217,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1219,10 +1228,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1230,10 +1239,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1241,10 +1250,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1252,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1263,10 +1272,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1274,10 +1283,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1285,10 +1294,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1296,10 +1305,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1307,10 +1316,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1318,10 +1327,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1329,10 +1338,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1340,10 +1349,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1351,10 +1360,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1362,10 +1371,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1373,10 +1382,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1384,10 +1393,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1395,10 +1404,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1406,10 +1415,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1417,10 +1426,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1428,10 +1437,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1439,10 +1448,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1450,10 +1459,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1461,10 +1470,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1472,10 +1481,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1483,10 +1492,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1494,10 +1503,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1505,10 +1514,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1516,10 +1525,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1527,10 +1536,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1538,10 +1547,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1549,10 +1558,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1560,10 +1569,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1571,10 +1580,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1582,10 +1591,32 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C73" t="s">
-        <v>129</v>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1662,6 +1693,8 @@
     <hyperlink ref="A71" r:id="rId70"/>
     <hyperlink ref="A72" r:id="rId71"/>
     <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
   <si>
     <t>link</t>
   </si>
@@ -247,6 +247,12 @@
     <t>https://www.360dx.com/cancer/guardant-health-blood-test-receives-japanese-approval-cdx-eli-lilly-breast-cancer-drug</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/chinese-mdx-precision-medicine-firm-geneplus-files-ipo-hong-kong-stock-exchange</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/chinese-mdx-precision-medicine-firm-geneplus-files-ipo-hong-kong-stock-exchange</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -413,6 +419,9 @@
   </si>
   <si>
     <t>Guardant Health Blood Test Receives Japanese Approval as CDx for Eli Lilly Breast Cancer Drug</t>
+  </si>
+  <si>
+    <t>Chinese MDx, Precision Medicine Firm GenePlus Files for IPO on Hong Kong Stock Exchange</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,10 +819,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -821,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -832,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -843,10 +852,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -854,10 +863,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -865,10 +874,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -876,10 +885,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -887,10 +896,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -898,10 +907,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -909,10 +918,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -920,10 +929,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -931,10 +940,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -942,10 +951,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -953,10 +962,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -964,10 +973,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -975,10 +984,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -986,10 +995,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -997,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1008,10 +1017,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1019,10 +1028,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1030,10 +1039,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1041,10 +1050,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1052,10 +1061,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1063,10 +1072,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1074,10 +1083,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1085,10 +1094,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1096,10 +1105,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1107,10 +1116,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1118,10 +1127,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1129,10 +1138,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1140,10 +1149,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1151,10 +1160,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1162,10 +1171,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1173,10 +1182,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1184,10 +1193,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1195,10 +1204,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1206,10 +1215,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1217,10 +1226,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1228,10 +1237,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1239,10 +1248,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1250,10 +1259,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1261,10 +1270,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1272,10 +1281,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1283,10 +1292,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1294,10 +1303,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1305,10 +1314,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1316,10 +1325,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1327,10 +1336,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1338,10 +1347,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1349,10 +1358,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1360,10 +1369,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1371,10 +1380,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1382,10 +1391,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1393,10 +1402,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1404,10 +1413,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1415,10 +1424,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1426,10 +1435,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1437,10 +1446,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1448,10 +1457,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1459,10 +1468,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1470,10 +1479,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1481,10 +1490,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1492,10 +1501,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1503,10 +1512,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1514,10 +1523,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1525,10 +1534,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1536,10 +1545,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1547,10 +1556,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1558,10 +1567,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1569,10 +1578,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1580,10 +1589,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1591,10 +1600,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1602,10 +1611,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1613,10 +1622,32 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C75" t="s">
-        <v>132</v>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1695,6 +1726,8 @@
     <hyperlink ref="A73" r:id="rId72"/>
     <hyperlink ref="A74" r:id="rId73"/>
     <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>link</t>
   </si>
@@ -253,6 +253,12 @@
     <t>https://www.360dx.com/cancer/chinese-mdx-precision-medicine-firm-geneplus-files-ipo-hong-kong-stock-exchange</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/precede-raises-84m-integrate-liquid-biopsy-test-alongside-next-gen-precision-cancer-drugs</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/precede-raises-84m-integrate-liquid-biopsy-test-alongside-next-gen-precision-cancer-drugs</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
   </si>
   <si>
     <t>Chinese MDx, Precision Medicine Firm GenePlus Files for IPO on Hong Kong Stock Exchange</t>
+  </si>
+  <si>
+    <t>Precede Raises $84M to Integrate Liquid Biopsy Test Alongside Next-Gen Precision Cancer Drugs</t>
   </si>
 </sst>
 </file>
@@ -792,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,10 +828,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -830,10 +839,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -841,10 +850,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -852,10 +861,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -863,10 +872,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -874,10 +883,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -885,10 +894,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -896,10 +905,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -907,10 +916,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -918,10 +927,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -929,10 +938,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -940,10 +949,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -951,10 +960,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -962,10 +971,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -973,10 +982,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -984,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -995,10 +1004,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1006,10 +1015,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1017,10 +1026,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1028,10 +1037,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1039,10 +1048,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1050,10 +1059,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1061,10 +1070,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1072,10 +1081,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1083,10 +1092,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1094,10 +1103,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1105,10 +1114,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1116,10 +1125,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1127,10 +1136,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1138,10 +1147,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1149,10 +1158,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1160,10 +1169,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1171,10 +1180,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1182,10 +1191,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1193,10 +1202,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1204,10 +1213,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1215,10 +1224,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1226,10 +1235,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1237,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1248,10 +1257,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1259,10 +1268,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1270,10 +1279,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1281,10 +1290,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1292,10 +1301,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1303,10 +1312,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1314,10 +1323,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1325,10 +1334,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1336,10 +1345,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1347,10 +1356,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1358,10 +1367,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1369,10 +1378,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1380,10 +1389,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1391,10 +1400,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1402,10 +1411,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1413,10 +1422,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1424,10 +1433,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1435,10 +1444,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1446,10 +1455,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1457,10 +1466,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1468,10 +1477,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1479,10 +1488,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1490,10 +1499,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1501,10 +1510,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1512,10 +1521,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1523,10 +1532,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1534,10 +1543,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1545,10 +1554,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1556,10 +1565,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1567,10 +1576,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1578,10 +1587,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1589,10 +1598,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1600,10 +1609,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1611,10 +1620,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1622,10 +1631,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1633,10 +1642,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1644,10 +1653,32 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C77" t="s">
-        <v>135</v>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1728,6 +1759,8 @@
     <hyperlink ref="A75" r:id="rId74"/>
     <hyperlink ref="A76" r:id="rId75"/>
     <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="144">
   <si>
     <t>link</t>
   </si>
@@ -259,6 +259,15 @@
     <t>https://www.360dx.com/cancer/precede-raises-84m-integrate-liquid-biopsy-test-alongside-next-gen-precision-cancer-drugs</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/guardant-merck-partner-develop-and-commercialize-companion-diagnostics</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/guardant-merck-partner-develop-and-commercialize-companion-diagnostics</t>
+  </si>
+  <si>
+    <t>https://www.fiercebiotech.com/medtech/guardant-health-pens-merck-co-cancer-collab-next-gen-tests-and-companion-diagnostics</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -431,6 +440,12 @@
   </si>
   <si>
     <t>Precede Raises $84M to Integrate Liquid Biopsy Test Alongside Next-Gen Precision Cancer Drugs</t>
+  </si>
+  <si>
+    <t>Guardant, Merck Partner to Develop and Commercialize Companion Diagnostics</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/medtech/guardant-health-pens-merck-co-cancer-collab-next-gen-tests-and-companion-diagnostics" hreflang="en"&gt;Guardant Health pens Merck &amp;amp; Co. cancer collab for next-gen tests, companion diagnostics &lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -801,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -839,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -850,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -861,10 +876,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -872,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -883,10 +898,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -894,10 +909,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -905,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -916,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -927,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -938,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -949,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -960,10 +975,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -971,10 +986,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -982,10 +997,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -993,10 +1008,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1004,10 +1019,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1015,10 +1030,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1026,10 +1041,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1037,10 +1052,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1048,10 +1063,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1059,10 +1074,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1070,10 +1085,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1081,10 +1096,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1092,10 +1107,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1103,10 +1118,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1114,10 +1129,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1125,10 +1140,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1136,10 +1151,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1147,10 +1162,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1158,10 +1173,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1169,10 +1184,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1180,10 +1195,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1191,10 +1206,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1202,10 +1217,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1213,10 +1228,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1224,10 +1239,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1235,10 +1250,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1246,10 +1261,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1257,10 +1272,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1268,10 +1283,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1279,10 +1294,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1290,10 +1305,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1301,10 +1316,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1312,10 +1327,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1323,10 +1338,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1334,10 +1349,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1345,10 +1360,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1356,10 +1371,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1367,10 +1382,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1378,10 +1393,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1389,10 +1404,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1400,10 +1415,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1411,10 +1426,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1422,10 +1437,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1433,10 +1448,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1444,10 +1459,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1455,10 +1470,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1466,10 +1481,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1477,10 +1492,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1488,10 +1503,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1499,10 +1514,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1510,10 +1525,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1521,10 +1536,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1532,10 +1547,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1543,10 +1558,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1554,10 +1569,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1565,10 +1580,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1576,10 +1591,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1587,10 +1602,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1598,10 +1613,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1609,10 +1624,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1620,10 +1635,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1631,10 +1646,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1642,10 +1657,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1653,10 +1668,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1664,10 +1679,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1675,10 +1690,43 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C79" t="s">
-        <v>138</v>
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1761,6 +1809,9 @@
     <hyperlink ref="A77" r:id="rId76"/>
     <hyperlink ref="A78" r:id="rId77"/>
     <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -452,16 +452,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -484,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -492,35 +484,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -828,18 +802,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -850,7 +824,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -861,7 +835,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -872,7 +846,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -883,7 +857,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -894,7 +868,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -905,7 +879,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -916,7 +890,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -927,7 +901,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -938,7 +912,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -949,7 +923,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -960,7 +934,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -971,7 +945,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
@@ -982,7 +956,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
@@ -993,7 +967,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -1004,7 +978,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
@@ -1015,7 +989,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
@@ -1026,7 +1000,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
@@ -1037,7 +1011,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -1048,7 +1022,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
@@ -1059,7 +1033,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
@@ -1070,7 +1044,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
@@ -1081,7 +1055,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
@@ -1092,7 +1066,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
@@ -1103,7 +1077,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
@@ -1114,7 +1088,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
@@ -1125,7 +1099,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
@@ -1136,7 +1110,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
@@ -1147,7 +1121,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
@@ -1158,7 +1132,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B31" t="s">
@@ -1169,7 +1143,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
@@ -1180,7 +1154,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
@@ -1191,7 +1165,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
@@ -1202,7 +1176,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
@@ -1213,7 +1187,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
@@ -1224,7 +1198,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
@@ -1235,7 +1209,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
@@ -1246,7 +1220,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
@@ -1257,7 +1231,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" t="s">
@@ -1268,7 +1242,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
@@ -1279,7 +1253,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B42" t="s">
@@ -1290,7 +1264,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
@@ -1301,7 +1275,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
@@ -1312,7 +1286,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
@@ -1323,7 +1297,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
@@ -1334,7 +1308,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B47" t="s">
@@ -1345,7 +1319,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
@@ -1356,7 +1330,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
@@ -1367,7 +1341,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
@@ -1378,7 +1352,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B51" t="s">
@@ -1389,7 +1363,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
@@ -1400,7 +1374,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B53" t="s">
@@ -1411,7 +1385,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B54" t="s">
@@ -1422,7 +1396,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B55" t="s">
@@ -1433,7 +1407,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B56" t="s">
@@ -1444,7 +1418,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B57" t="s">
@@ -1455,7 +1429,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
@@ -1466,7 +1440,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
@@ -1477,7 +1451,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B60" t="s">
@@ -1488,7 +1462,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B61" t="s">
@@ -1499,7 +1473,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
@@ -1510,7 +1484,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
@@ -1521,7 +1495,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
@@ -1532,7 +1506,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B65" t="s">
@@ -1543,7 +1517,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B66" t="s">
@@ -1554,7 +1528,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B67" t="s">
@@ -1565,7 +1539,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B68" t="s">
@@ -1576,7 +1550,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B69" t="s">
@@ -1587,7 +1561,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B70" t="s">
@@ -1598,7 +1572,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B71" t="s">
@@ -1609,7 +1583,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B72" t="s">
@@ -1620,7 +1594,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
@@ -1631,7 +1605,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
@@ -1642,7 +1616,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B75" t="s">
@@ -1653,7 +1627,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B76" t="s">
@@ -1664,7 +1638,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B77" t="s">
@@ -1675,7 +1649,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B78" t="s">
@@ -1686,7 +1660,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B79" t="s">
@@ -1697,7 +1671,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
@@ -1708,7 +1682,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
@@ -1719,7 +1693,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
   <si>
     <t>link</t>
   </si>
@@ -268,6 +268,15 @@
     <t>https://www.fiercebiotech.com/medtech/guardant-health-pens-merck-co-cancer-collab-next-gen-tests-and-companion-diagnostics</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/guardant-health-liquid-biopsy-nabs-fda-approval-cdx-pfizer-colorectal-cancer-drug-combo</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/circulating-tumor-cell-assay-finds-best-responders-amgens-small-cell-lung-cancer-drug</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/guardant-health-liquid-biopsy-nabs-fda-approval-cdx-pfizer-colorectal-cancer-drug-combo</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -446,6 +455,12 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/medtech/guardant-health-pens-merck-co-cancer-collab-next-gen-tests-and-companion-diagnostics" hreflang="en"&gt;Guardant Health pens Merck &amp;amp; Co. cancer collab for next-gen tests, companion diagnostics &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Guardant Health Liquid Biopsy Nabs FDA Approval as CDx for Pfizer Colorectal Cancer Drug Combo</t>
+  </si>
+  <si>
+    <t>Circulating Tumor Cell Assay Finds Best Responders to Amgen's Small Cell Lung Cancer Drug</t>
   </si>
 </sst>
 </file>
@@ -790,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,10 +832,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -828,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -839,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -850,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -861,10 +876,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -872,10 +887,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -883,10 +898,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -894,10 +909,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -905,10 +920,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -916,10 +931,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -927,10 +942,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -938,10 +953,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -949,10 +964,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -960,10 +975,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -971,10 +986,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -982,10 +997,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -993,10 +1008,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1004,10 +1019,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1015,10 +1030,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1026,10 +1041,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1037,10 +1052,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1048,10 +1063,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1059,10 +1074,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1070,10 +1085,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1081,10 +1096,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1092,10 +1107,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1103,10 +1118,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1114,10 +1129,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1125,10 +1140,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1136,10 +1151,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1147,10 +1162,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1158,10 +1173,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1169,10 +1184,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1180,10 +1195,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1191,10 +1206,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1202,10 +1217,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1213,10 +1228,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1224,10 +1239,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1235,10 +1250,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1246,10 +1261,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1257,10 +1272,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1268,10 +1283,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1279,10 +1294,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1290,10 +1305,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1301,10 +1316,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1312,10 +1327,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1323,10 +1338,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1334,10 +1349,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1345,10 +1360,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1356,10 +1371,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1367,10 +1382,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1378,10 +1393,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1389,10 +1404,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1400,10 +1415,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1411,10 +1426,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1422,10 +1437,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1433,10 +1448,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1444,10 +1459,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1455,10 +1470,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1466,10 +1481,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1477,10 +1492,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1488,10 +1503,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1499,10 +1514,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1510,10 +1525,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1521,10 +1536,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1532,10 +1547,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1543,10 +1558,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1554,10 +1569,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1565,10 +1580,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1576,10 +1591,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1587,10 +1602,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1598,10 +1613,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1609,10 +1624,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1620,10 +1635,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1631,10 +1646,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1642,10 +1657,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1653,10 +1668,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1664,10 +1679,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1675,10 +1690,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1686,10 +1701,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1697,10 +1712,43 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1786,6 +1834,9 @@
     <hyperlink ref="A80" r:id="rId79"/>
     <hyperlink ref="A81" r:id="rId80"/>
     <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
   <si>
     <t>link</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>https://www.360dx.com/cancer/guardant-health-liquid-biopsy-nabs-fda-approval-cdx-pfizer-colorectal-cancer-drug-combo</t>
+  </si>
+  <si>
+    <t>https://www.genomeweb.com/cancer/circulating-tumor-cell-assay-finds-best-responders-amgens-small-cell-lung-cancer-drug</t>
   </si>
   <si>
     <t>companion diagnostic</t>
@@ -805,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -843,10 +846,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -854,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -865,10 +868,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -876,10 +879,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -887,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -898,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -909,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -920,10 +923,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -931,10 +934,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -942,10 +945,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -953,10 +956,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -964,10 +967,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -975,10 +978,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -986,10 +989,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -997,10 +1000,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1008,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1019,10 +1022,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1030,10 +1033,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1041,10 +1044,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1052,10 +1055,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1063,10 +1066,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1074,10 +1077,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1085,10 +1088,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1096,10 +1099,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1107,10 +1110,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1118,10 +1121,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1129,10 +1132,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1140,10 +1143,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1151,10 +1154,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1162,10 +1165,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1173,10 +1176,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1184,10 +1187,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1195,10 +1198,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1206,10 +1209,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1217,10 +1220,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1228,10 +1231,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1239,10 +1242,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1250,10 +1253,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1261,10 +1264,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1272,10 +1275,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1283,10 +1286,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1294,10 +1297,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1305,10 +1308,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1316,10 +1319,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1327,10 +1330,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1338,10 +1341,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1349,10 +1352,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1360,10 +1363,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1371,10 +1374,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1382,10 +1385,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1393,10 +1396,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1404,10 +1407,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1415,10 +1418,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1426,10 +1429,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1437,10 +1440,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1448,10 +1451,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1459,10 +1462,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1470,10 +1473,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1481,10 +1484,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1492,10 +1495,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1503,10 +1506,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1514,10 +1517,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1525,10 +1528,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1536,10 +1539,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1547,10 +1550,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1558,10 +1561,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1569,10 +1572,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1580,10 +1583,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1591,10 +1594,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1602,10 +1605,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1613,10 +1616,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1624,10 +1627,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1635,10 +1638,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1646,10 +1649,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1657,10 +1660,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1668,10 +1671,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1679,10 +1682,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1690,10 +1693,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1701,10 +1704,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1712,10 +1715,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1723,10 +1726,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1734,10 +1737,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1745,10 +1748,21 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
         <v>88</v>
       </c>
-      <c r="C85" t="s">
-        <v>147</v>
+      <c r="C86" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1837,6 +1851,7 @@
     <hyperlink ref="A83" r:id="rId82"/>
     <hyperlink ref="A84" r:id="rId83"/>
     <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
   <si>
     <t>link</t>
   </si>
@@ -280,6 +280,9 @@
     <t>https://www.genomeweb.com/cancer/circulating-tumor-cell-assay-finds-best-responders-amgens-small-cell-lung-cancer-drug</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/medtech/guardant-health-gets-fda-nod-expand-use-blood-test-colon-cancer</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -464,6 +467,9 @@
   </si>
   <si>
     <t>Circulating Tumor Cell Assay Finds Best Responders to Amgen's Small Cell Lung Cancer Drug</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/medtech/guardant-health-gets-fda-nod-expand-use-blood-test-colon-cancer" hreflang="en"&gt;Guardant Health gets FDA nod to expand use of blood test for colon cancer&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -808,7 +814,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -835,10 +841,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -846,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -857,10 +863,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -868,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -879,10 +885,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -890,10 +896,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -901,10 +907,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -912,10 +918,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -923,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -934,10 +940,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -945,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -956,10 +962,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -967,10 +973,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -978,10 +984,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -989,10 +995,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1000,10 +1006,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1011,10 +1017,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1022,10 +1028,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1033,10 +1039,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1044,10 +1050,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1055,10 +1061,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1066,10 +1072,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1077,10 +1083,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1088,10 +1094,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1099,10 +1105,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1110,10 +1116,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1121,10 +1127,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1132,10 +1138,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1143,10 +1149,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1154,10 +1160,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1165,10 +1171,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1176,10 +1182,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1187,10 +1193,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1198,10 +1204,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1209,10 +1215,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1220,10 +1226,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1231,10 +1237,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1242,10 +1248,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1253,10 +1259,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1264,10 +1270,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1275,10 +1281,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1286,10 +1292,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1297,10 +1303,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1308,10 +1314,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1319,10 +1325,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1330,10 +1336,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1341,10 +1347,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1352,10 +1358,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1363,10 +1369,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1374,10 +1380,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1385,10 +1391,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1396,10 +1402,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1407,10 +1413,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1418,10 +1424,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1429,10 +1435,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1440,10 +1446,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1451,10 +1457,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1462,10 +1468,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1473,10 +1479,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1484,10 +1490,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1495,10 +1501,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1506,10 +1512,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1517,10 +1523,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1528,10 +1534,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1539,10 +1545,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1550,10 +1556,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1561,10 +1567,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1572,10 +1578,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1583,10 +1589,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1594,10 +1600,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1605,10 +1611,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1616,10 +1622,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1627,10 +1633,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1638,10 +1644,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1649,10 +1655,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1660,10 +1666,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1671,10 +1677,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1682,10 +1688,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1693,10 +1699,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1704,10 +1710,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1715,10 +1721,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1726,10 +1732,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1737,10 +1743,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1748,10 +1754,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1759,10 +1765,21 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C86" t="s">
-        <v>149</v>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1852,6 +1869,7 @@
     <hyperlink ref="A84" r:id="rId83"/>
     <hyperlink ref="A85" r:id="rId84"/>
     <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
   <si>
     <t>link</t>
   </si>
@@ -283,6 +283,9 @@
     <t>https://www.fiercebiotech.com/medtech/guardant-health-gets-fda-nod-expand-use-blood-test-colon-cancer</t>
   </si>
   <si>
+    <t>https://www.360dx.com/clinical-lab-management/legal-ruling-fda-authority-over-ldts-raises-questions-advanced-dx-cdx</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -470,6 +473,9 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/medtech/guardant-health-gets-fda-nod-expand-use-blood-test-colon-cancer" hreflang="en"&gt;Guardant Health gets FDA nod to expand use of blood test for colon cancer&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Legal Ruling on FDA Authority Over LDTs Raises Questions for Advanced Dx, CDx Developers</t>
   </si>
 </sst>
 </file>
@@ -814,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -852,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -863,10 +869,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -874,10 +880,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -885,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -896,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -907,10 +913,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -918,10 +924,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -929,10 +935,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -940,10 +946,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -951,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -962,10 +968,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -973,10 +979,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -984,10 +990,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -995,10 +1001,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1006,10 +1012,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1017,10 +1023,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1028,10 +1034,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1039,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1050,10 +1056,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1061,10 +1067,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1072,10 +1078,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1083,10 +1089,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1094,10 +1100,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1105,10 +1111,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1116,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1127,10 +1133,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1138,10 +1144,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1149,10 +1155,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1160,10 +1166,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1171,10 +1177,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1182,10 +1188,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1193,10 +1199,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1204,10 +1210,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1215,10 +1221,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1226,10 +1232,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1237,10 +1243,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1248,10 +1254,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1259,10 +1265,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1270,10 +1276,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1281,10 +1287,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1292,10 +1298,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1303,10 +1309,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1314,10 +1320,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1325,10 +1331,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1336,10 +1342,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1347,10 +1353,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1358,10 +1364,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1369,10 +1375,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1380,10 +1386,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1391,10 +1397,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1402,10 +1408,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1413,10 +1419,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1424,10 +1430,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1435,10 +1441,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1446,10 +1452,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1457,10 +1463,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1468,10 +1474,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1479,10 +1485,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1490,10 +1496,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1501,10 +1507,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1512,10 +1518,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1523,10 +1529,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1534,10 +1540,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1545,10 +1551,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1556,10 +1562,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1567,10 +1573,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1578,10 +1584,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1589,10 +1595,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1600,10 +1606,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1611,10 +1617,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1622,10 +1628,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1633,10 +1639,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1644,10 +1650,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1655,10 +1661,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1666,10 +1672,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1677,10 +1683,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1688,10 +1694,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1699,10 +1705,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1710,10 +1716,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1721,10 +1727,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1732,10 +1738,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1743,10 +1749,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1754,10 +1760,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1765,10 +1771,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1776,10 +1782,21 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1870,6 +1887,7 @@
     <hyperlink ref="A85" r:id="rId84"/>
     <hyperlink ref="A86" r:id="rId85"/>
     <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
   <si>
     <t>link</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>https://www.360dx.com/clinical-lab-management/legal-ruling-fda-authority-over-ldts-raises-questions-advanced-dx-cdx</t>
+  </si>
+  <si>
+    <t>https://www.genomeweb.com/clinical-lab-management/legal-ruling-fda-authority-over-ldts-raises-questions-advanced-dx-cdx</t>
   </si>
   <si>
     <t>companion diagnostic</t>
@@ -820,7 +823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -858,10 +861,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -869,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -880,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -891,10 +894,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -902,10 +905,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -913,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -924,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -935,10 +938,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -946,10 +949,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -957,10 +960,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -968,10 +971,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -979,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -990,10 +993,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1001,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1012,10 +1015,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1023,10 +1026,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1034,10 +1037,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1045,10 +1048,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1056,10 +1059,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1067,10 +1070,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1078,10 +1081,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1089,10 +1092,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1100,10 +1103,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1111,10 +1114,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1122,10 +1125,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1133,10 +1136,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1144,10 +1147,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1155,10 +1158,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1166,10 +1169,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1177,10 +1180,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1188,10 +1191,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1199,10 +1202,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1210,10 +1213,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1221,10 +1224,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1232,10 +1235,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1243,10 +1246,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1254,10 +1257,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1265,10 +1268,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1276,10 +1279,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1287,10 +1290,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1298,10 +1301,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1309,10 +1312,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1320,10 +1323,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1331,10 +1334,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1342,10 +1345,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1353,10 +1356,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1364,10 +1367,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1375,10 +1378,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1386,10 +1389,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1397,10 +1400,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1408,10 +1411,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1419,10 +1422,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1430,10 +1433,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1441,10 +1444,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1452,10 +1455,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1463,10 +1466,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1474,10 +1477,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1485,10 +1488,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1496,10 +1499,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1507,10 +1510,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1518,10 +1521,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1529,10 +1532,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1540,10 +1543,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1551,10 +1554,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1562,10 +1565,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1573,10 +1576,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1584,10 +1587,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1595,10 +1598,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1606,10 +1609,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1617,10 +1620,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1628,10 +1631,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1639,10 +1642,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1650,10 +1653,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1661,10 +1664,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1672,10 +1675,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1683,10 +1686,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1694,10 +1697,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1705,10 +1708,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1716,10 +1719,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1727,10 +1730,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1738,10 +1741,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1749,10 +1752,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1760,10 +1763,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1771,10 +1774,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1782,10 +1785,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1793,10 +1796,21 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1888,6 +1902,7 @@
     <hyperlink ref="A86" r:id="rId85"/>
     <hyperlink ref="A87" r:id="rId86"/>
     <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
   <si>
     <t>link</t>
   </si>
@@ -289,6 +289,12 @@
     <t>https://www.genomeweb.com/clinical-lab-management/legal-ruling-fda-authority-over-ldts-raises-questions-advanced-dx-cdx</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/natera-submits-signatera-cdx-bladder-cancer-fda-premarket-approval</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/natera-submits-signatera-cdx-bladder-cancer-fda-premarket-approval</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -479,6 +485,9 @@
   </si>
   <si>
     <t>Legal Ruling on FDA Authority Over LDTs Raises Questions for Advanced Dx, CDx Developers</t>
+  </si>
+  <si>
+    <t>Natera Submits Signatera CDx for Bladder Cancer to FDA for Premarket Approval</t>
   </si>
 </sst>
 </file>
@@ -823,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +859,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -861,10 +870,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -872,10 +881,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -883,10 +892,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -894,10 +903,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -905,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -916,10 +925,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -927,10 +936,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -938,10 +947,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -949,10 +958,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -960,10 +969,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -971,10 +980,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -982,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -993,10 +1002,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1004,10 +1013,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1015,10 +1024,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1026,10 +1035,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1037,10 +1046,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1048,10 +1057,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1059,10 +1068,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1070,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1081,10 +1090,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1092,10 +1101,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1103,10 +1112,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1114,10 +1123,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1125,10 +1134,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1136,10 +1145,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1147,10 +1156,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1158,10 +1167,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1169,10 +1178,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1180,10 +1189,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1191,10 +1200,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1202,10 +1211,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1213,10 +1222,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1224,10 +1233,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1235,10 +1244,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1246,10 +1255,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1257,10 +1266,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1268,10 +1277,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1279,10 +1288,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1290,10 +1299,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1301,10 +1310,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1312,10 +1321,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1323,10 +1332,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1334,10 +1343,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1345,10 +1354,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1356,10 +1365,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1367,10 +1376,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1378,10 +1387,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1389,10 +1398,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1400,10 +1409,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1411,10 +1420,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1422,10 +1431,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1433,10 +1442,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1444,10 +1453,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1455,10 +1464,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1466,10 +1475,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1477,10 +1486,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1488,10 +1497,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1499,10 +1508,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1510,10 +1519,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1521,10 +1530,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1532,10 +1541,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1543,10 +1552,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1554,10 +1563,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1565,10 +1574,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1576,10 +1585,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1587,10 +1596,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1598,10 +1607,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1609,10 +1618,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1620,10 +1629,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1631,10 +1640,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1642,10 +1651,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1653,10 +1662,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1664,10 +1673,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1675,10 +1684,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1686,10 +1695,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1697,10 +1706,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1708,10 +1717,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1719,10 +1728,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1730,10 +1739,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1741,10 +1750,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1752,10 +1761,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1763,10 +1772,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1774,10 +1783,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1785,10 +1794,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1796,10 +1805,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1807,10 +1816,32 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C89" t="s">
-        <v>154</v>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1903,6 +1934,8 @@
     <hyperlink ref="A87" r:id="rId86"/>
     <hyperlink ref="A88" r:id="rId87"/>
     <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
   <si>
     <t>link</t>
   </si>
@@ -295,6 +295,12 @@
     <t>https://www.360dx.com/cancer/natera-submits-signatera-cdx-bladder-cancer-fda-premarket-approval</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/promega-msi-detection-kit-gets-china-nmpa-approval-cdx-mercks-keytruda</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/promega-msi-detection-kit-gets-china-nmpa-approval-cdx-mercks-keytruda</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -488,6 +494,9 @@
   </si>
   <si>
     <t>Natera Submits Signatera CDx for Bladder Cancer to FDA for Premarket Approval</t>
+  </si>
+  <si>
+    <t>Promega MSI Detection Kit Gets China NMPA Approval as CDx for Merck's Keytruda</t>
   </si>
 </sst>
 </file>
@@ -832,7 +841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -870,10 +879,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -881,10 +890,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -892,10 +901,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -903,10 +912,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -914,10 +923,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -925,10 +934,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -936,10 +945,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -947,10 +956,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -958,10 +967,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -969,10 +978,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -980,10 +989,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -991,10 +1000,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1002,10 +1011,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1013,10 +1022,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1024,10 +1033,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1035,10 +1044,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1046,10 +1055,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1057,10 +1066,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1068,10 +1077,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1079,10 +1088,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1090,10 +1099,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1101,10 +1110,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1112,10 +1121,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1123,10 +1132,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1134,10 +1143,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1145,10 +1154,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1156,10 +1165,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1167,10 +1176,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1178,10 +1187,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1189,10 +1198,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1200,10 +1209,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1211,10 +1220,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1222,10 +1231,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1233,10 +1242,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1244,10 +1253,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1255,10 +1264,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1266,10 +1275,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1277,10 +1286,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1288,10 +1297,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1299,10 +1308,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1310,10 +1319,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1321,10 +1330,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1332,10 +1341,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1343,10 +1352,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1354,10 +1363,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1365,10 +1374,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1376,10 +1385,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1387,10 +1396,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1398,10 +1407,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1409,10 +1418,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1420,10 +1429,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1431,10 +1440,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1442,10 +1451,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1453,10 +1462,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1464,10 +1473,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1475,10 +1484,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1486,10 +1495,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1497,10 +1506,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1508,10 +1517,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1519,10 +1528,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1530,10 +1539,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1541,10 +1550,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1552,10 +1561,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1563,10 +1572,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1574,10 +1583,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1585,10 +1594,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1596,10 +1605,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1607,10 +1616,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1618,10 +1627,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1629,10 +1638,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1640,10 +1649,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1651,10 +1660,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1662,10 +1671,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1673,10 +1682,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1684,10 +1693,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1695,10 +1704,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1706,10 +1715,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1717,10 +1726,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1728,10 +1737,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1739,10 +1748,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1750,10 +1759,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1761,10 +1770,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1772,10 +1781,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1783,10 +1792,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1794,10 +1803,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1805,10 +1814,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1816,10 +1825,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1827,10 +1836,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1838,10 +1847,32 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C91" t="s">
-        <v>157</v>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1936,6 +1967,8 @@
     <hyperlink ref="A89" r:id="rId88"/>
     <hyperlink ref="A90" r:id="rId89"/>
     <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="164">
   <si>
     <t>link</t>
   </si>
@@ -301,6 +301,12 @@
     <t>https://www.360dx.com/cancer/promega-msi-detection-kit-gets-china-nmpa-approval-cdx-mercks-keytruda</t>
   </si>
   <si>
+    <t>https://www.genomeweb.com/cancer/merck-immunotherapy-agilent-cdx-net-fda-approval-pd-l1-positive-ovarian-cancer</t>
+  </si>
+  <si>
+    <t>https://www.360dx.com/cancer/merck-immunotherapy-agilent-cdx-net-fda-approval-pd-l1-positive-ovarian-cancer</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -497,6 +503,9 @@
   </si>
   <si>
     <t>Promega MSI Detection Kit Gets China NMPA Approval as CDx for Merck's Keytruda</t>
+  </si>
+  <si>
+    <t>Merck Immunotherapy, Agilent CDx Net FDA Approval for PD-L1-Positive Ovarian Cancer</t>
   </si>
 </sst>
 </file>
@@ -841,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -868,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -879,10 +888,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -890,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -901,10 +910,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -912,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -923,10 +932,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -934,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -945,10 +954,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -956,10 +965,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -967,10 +976,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -978,10 +987,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -989,10 +998,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1000,10 +1009,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1011,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1022,10 +1031,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1033,10 +1042,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1044,10 +1053,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1055,10 +1064,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1066,10 +1075,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1077,10 +1086,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1088,10 +1097,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1099,10 +1108,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1110,10 +1119,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1121,10 +1130,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1132,10 +1141,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1143,10 +1152,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1154,10 +1163,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1165,10 +1174,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1176,10 +1185,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1187,10 +1196,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1198,10 +1207,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1209,10 +1218,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1220,10 +1229,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1231,10 +1240,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1242,10 +1251,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1253,10 +1262,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1264,10 +1273,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1275,10 +1284,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1286,10 +1295,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1297,10 +1306,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1308,10 +1317,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1319,10 +1328,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1330,10 +1339,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1341,10 +1350,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1352,10 +1361,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1363,10 +1372,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1374,10 +1383,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1385,10 +1394,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1396,10 +1405,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1407,10 +1416,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1418,10 +1427,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1429,10 +1438,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1440,10 +1449,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1451,10 +1460,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1462,10 +1471,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1473,10 +1482,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1484,10 +1493,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1495,10 +1504,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1506,10 +1515,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1517,10 +1526,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1528,10 +1537,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1539,10 +1548,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1550,10 +1559,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1561,10 +1570,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1572,10 +1581,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1583,10 +1592,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1594,10 +1603,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1605,10 +1614,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1616,10 +1625,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1627,10 +1636,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1638,10 +1647,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1649,10 +1658,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1660,10 +1669,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1671,10 +1680,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1682,10 +1691,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1693,10 +1702,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1704,10 +1713,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1715,10 +1724,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1726,10 +1735,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1737,10 +1746,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1748,10 +1757,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1759,10 +1768,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1770,10 +1779,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1781,10 +1790,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1792,10 +1801,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1803,10 +1812,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1814,10 +1823,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1825,10 +1834,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1836,10 +1845,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1847,10 +1856,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1858,10 +1867,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1869,10 +1878,32 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C93" t="s">
-        <v>160</v>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1969,6 +2000,8 @@
     <hyperlink ref="A91" r:id="rId90"/>
     <hyperlink ref="A92" r:id="rId91"/>
     <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="166">
   <si>
     <t>link</t>
   </si>
@@ -307,6 +307,9 @@
     <t>https://www.360dx.com/cancer/merck-immunotherapy-agilent-cdx-net-fda-approval-pd-l1-positive-ovarian-cancer</t>
   </si>
   <si>
+    <t>https://www.fiercebiotech.com/medtech/agilent-lands-fda-nod-companion-diagnostic-keytrudas-latest-cancer-approval</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -506,6 +509,9 @@
   </si>
   <si>
     <t>Merck Immunotherapy, Agilent CDx Net FDA Approval for PD-L1-Positive Ovarian Cancer</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.fiercebiotech.com/medtech/agilent-lands-fda-nod-companion-diagnostic-keytrudas-latest-cancer-approval" hreflang="en"&gt;Agilent companion diagnostic lands FDA nod alongside Keytruda's latest cancer approval&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -850,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -888,10 +894,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -899,10 +905,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -910,10 +916,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -921,10 +927,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -932,10 +938,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -943,10 +949,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -954,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -965,10 +971,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -976,10 +982,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -987,10 +993,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -998,10 +1004,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1009,10 +1015,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1020,10 +1026,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1031,10 +1037,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1042,10 +1048,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1053,10 +1059,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1064,10 +1070,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1075,10 +1081,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1086,10 +1092,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1097,10 +1103,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1108,10 +1114,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1119,10 +1125,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1130,10 +1136,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1141,10 +1147,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1152,10 +1158,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1163,10 +1169,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1174,10 +1180,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1185,10 +1191,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1196,10 +1202,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1207,10 +1213,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1218,10 +1224,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1229,10 +1235,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1240,10 +1246,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1251,10 +1257,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1262,10 +1268,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1273,10 +1279,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1284,10 +1290,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1295,10 +1301,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1306,10 +1312,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1317,10 +1323,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1328,10 +1334,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1339,10 +1345,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1350,10 +1356,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1361,10 +1367,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1372,10 +1378,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1383,10 +1389,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1394,10 +1400,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1405,10 +1411,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1416,10 +1422,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1427,10 +1433,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1438,10 +1444,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1449,10 +1455,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1460,10 +1466,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1471,10 +1477,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1482,10 +1488,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1493,10 +1499,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1504,10 +1510,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1515,10 +1521,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1526,10 +1532,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1537,10 +1543,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1548,10 +1554,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1559,10 +1565,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1570,10 +1576,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1581,10 +1587,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1592,10 +1598,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1603,10 +1609,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1614,10 +1620,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1625,10 +1631,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1636,10 +1642,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1647,10 +1653,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1658,10 +1664,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1669,10 +1675,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1680,10 +1686,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1691,10 +1697,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1702,10 +1708,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1713,10 +1719,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1724,10 +1730,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1735,10 +1741,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1746,10 +1752,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1757,10 +1763,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1768,10 +1774,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1779,10 +1785,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1790,10 +1796,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1801,10 +1807,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1812,10 +1818,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1823,10 +1829,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1834,10 +1840,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1845,10 +1851,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1856,10 +1862,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1867,10 +1873,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1878,10 +1884,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1889,10 +1895,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1900,10 +1906,21 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
         <v>98</v>
       </c>
-      <c r="C95" t="s">
-        <v>163</v>
+      <c r="C96" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2002,6 +2019,7 @@
     <hyperlink ref="A93" r:id="rId92"/>
     <hyperlink ref="A94" r:id="rId93"/>
     <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/filtered_feeds.xlsx
+++ b/filtered_feeds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="168">
   <si>
     <t>link</t>
   </si>
@@ -310,6 +310,9 @@
     <t>https://www.fiercebiotech.com/medtech/agilent-lands-fda-nod-companion-diagnostic-keytrudas-latest-cancer-approval</t>
   </si>
   <si>
+    <t>https://www.360dx.com/cancer/acrivon-therapeutics-open-clia-certified-lab-run-diagnostics-targeted-therapies</t>
+  </si>
+  <si>
     <t>companion diagnostic</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>&lt;a href="https://www.fiercebiotech.com/medtech/agilent-lands-fda-nod-companion-diagnostic-keytrudas-latest-cancer-approval" hreflang="en"&gt;Agilent companion diagnostic lands FDA nod alongside Keytruda's latest cancer approval&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Acrivon Therapeutics to Open CLIA-Certified Lab to Run Diagnostics for Targeted Therapies</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,10 +889,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -894,10 +900,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -905,10 +911,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -916,10 +922,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -927,10 +933,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -938,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -949,10 +955,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -960,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -971,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -982,10 +988,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -993,10 +999,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1004,10 +1010,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1015,10 +1021,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1026,10 +1032,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1037,10 +1043,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1048,10 +1054,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1059,10 +1065,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1070,10 +1076,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1081,10 +1087,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1092,10 +1098,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1103,10 +1109,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1114,10 +1120,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1125,10 +1131,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1136,10 +1142,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1147,10 +1153,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1158,10 +1164,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1169,10 +1175,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1180,10 +1186,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1191,10 +1197,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1202,10 +1208,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1213,10 +1219,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1224,10 +1230,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1235,10 +1241,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1246,10 +1252,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1257,10 +1263,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1268,10 +1274,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1279,10 +1285,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1290,10 +1296,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1301,10 +1307,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1312,10 +1318,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1323,10 +1329,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1334,10 +1340,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1345,10 +1351,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1356,10 +1362,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1367,10 +1373,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1378,10 +1384,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1389,10 +1395,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1400,10 +1406,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1411,10 +1417,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1422,10 +1428,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1433,10 +1439,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1444,10 +1450,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1455,10 +1461,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1466,10 +1472,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1477,10 +1483,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1488,10 +1494,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1499,10 +1505,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1510,10 +1516,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1521,10 +1527,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1532,10 +1538,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1543,10 +1549,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1554,10 +1560,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1565,10 +1571,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1576,10 +1582,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1587,10 +1593,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1598,10 +1604,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1609,10 +1615,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1620,10 +1626,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1631,10 +1637,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1642,10 +1648,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1653,10 +1659,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1664,10 +1670,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1675,10 +1681,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1686,10 +1692,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1697,10 +1703,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1708,10 +1714,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1719,10 +1725,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1730,10 +1736,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1741,10 +1747,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1752,10 +1758,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1763,10 +1769,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1774,10 +1780,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1785,10 +1791,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1796,10 +1802,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1807,10 +1813,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1818,10 +1824,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1829,10 +1835,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1840,10 +1846,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1851,10 +1857,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1862,10 +1868,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1873,10 +1879,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1884,10 +1890,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1895,10 +1901,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1906,10 +1912,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1917,10 +1923,21 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C96" t="s">
-        <v>165</v>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2020,6 +2037,7 @@
     <hyperlink ref="A94" r:id="rId93"/>
     <hyperlink ref="A95" r:id="rId94"/>
     <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
